--- a/R/archive/Kedelai/Data Total Lengkap.xlsx
+++ b/R/archive/Kedelai/Data Total Lengkap.xlsx
@@ -1,21 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Blog\Learn\R\archive\Kedelai\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{285451E0-AFD2-466B-990C-C978B15E6D22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView xWindow="1425" yWindow="1410" windowWidth="12765" windowHeight="10110" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
-    <sheet r:id="rId2" sheetId="2" name="Backup"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId2"/>
+    <sheet name="Backup" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="81">
   <si>
     <t>Genotipe</t>
   </si>
@@ -201,13 +208,69 @@
   </si>
   <si>
     <t>GBG</t>
+  </si>
+  <si>
+    <t>PH</t>
+  </si>
+  <si>
+    <t>SD</t>
+  </si>
+  <si>
+    <t>NN</t>
+  </si>
+  <si>
+    <t>ND</t>
+  </si>
+  <si>
+    <t>BT</t>
+  </si>
+  <si>
+    <t>BP</t>
+  </si>
+  <si>
+    <t>LN</t>
+  </si>
+  <si>
+    <t>PL</t>
+  </si>
+  <si>
+    <t>PW</t>
+  </si>
+  <si>
+    <t>SL</t>
+  </si>
+  <si>
+    <t>SW</t>
+  </si>
+  <si>
+    <t>PNL</t>
+  </si>
+  <si>
+    <t>PWL</t>
+  </si>
+  <si>
+    <t>PC</t>
+  </si>
+  <si>
+    <t>SNP</t>
+  </si>
+  <si>
+    <t>SNL</t>
+  </si>
+  <si>
+    <t>SWL</t>
+  </si>
+  <si>
+    <t>SC</t>
+  </si>
+  <si>
+    <t>S100</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -257,40 +320,39 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="9">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -301,10 +363,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -342,71 +404,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -434,7 +496,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -457,11 +519,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -470,13 +532,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -486,7 +548,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -495,7 +557,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -504,7 +566,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -512,10 +574,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -580,39 +642,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:T37"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="4" width="12.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="5" width="9.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="5" width="9.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="5" width="9.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="5" width="9.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="5" width="9.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="5" width="9.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="5" width="9.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="5" width="9.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="5" width="9.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="5" width="9.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="5" width="9.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="5" width="9.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="5" width="9.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="5" width="9.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="16" max="16" style="5" width="9.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="17" max="17" style="5" width="9.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="18" max="18" style="5" width="9.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="19" max="19" style="5" width="9.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="20" max="20" style="5" width="9.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="12.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="20" width="9.7109375" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
+    <row r="1" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -674,7 +720,7 @@
         <v>21</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
+    <row r="2" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>24</v>
       </c>
@@ -685,7 +731,7 @@
         <v>0.75</v>
       </c>
       <c r="D2" s="8">
-        <v>0.5433333333333333</v>
+        <v>0.54333333333333333</v>
       </c>
       <c r="E2" s="8">
         <v>6.333333333333333</v>
@@ -703,16 +749,16 @@
         <v>61.416666666666664</v>
       </c>
       <c r="J2" s="8">
-        <v>23.78333333333333</v>
+        <v>23.783333333333331</v>
       </c>
       <c r="K2" s="8">
-        <v>3.577916666666667</v>
+        <v>3.5779166666666669</v>
       </c>
       <c r="L2" s="8">
-        <v>0.9270833333333334</v>
+        <v>0.92708333333333337</v>
       </c>
       <c r="M2" s="8">
-        <v>0.5651666666666667</v>
+        <v>0.56516666666666671</v>
       </c>
       <c r="N2" s="8">
         <v>2.276757721225056</v>
@@ -724,30 +770,30 @@
         <v>14.866666666666667</v>
       </c>
       <c r="Q2" s="8">
-        <v>0.7050075553673381</v>
+        <v>0.70500755536733806</v>
       </c>
       <c r="R2" s="8">
         <v>0.46366790057768315</v>
       </c>
       <c r="S2" s="8">
-        <v>0.5678106630688152</v>
+        <v>0.56781066306881522</v>
       </c>
       <c r="T2" s="8">
         <v>13.466666666666669</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
+    <row r="3" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>25</v>
       </c>
       <c r="B3" s="8">
-        <v>76.29166666666667</v>
+        <v>76.291666666666671</v>
       </c>
       <c r="C3" s="8">
-        <v>0.8333333333333334</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="D3" s="8">
-        <v>0.5233333333333333</v>
+        <v>0.52333333333333332</v>
       </c>
       <c r="E3" s="8">
         <v>6.333333333333333</v>
@@ -771,10 +817,10 @@
         <v>3.5</v>
       </c>
       <c r="L3" s="8">
-        <v>0.8762500000000001</v>
+        <v>0.87625000000000008</v>
       </c>
       <c r="M3" s="8">
-        <v>0.5366666666666666</v>
+        <v>0.53666666666666663</v>
       </c>
       <c r="N3" s="8">
         <v>2.5035951554797244</v>
@@ -786,30 +832,30 @@
         <v>11.883333333333333</v>
       </c>
       <c r="Q3" s="8">
-        <v>0.6537296893395039</v>
+        <v>0.65372968933950393</v>
       </c>
       <c r="R3" s="8">
         <v>0.44254906072425254</v>
       </c>
       <c r="S3" s="8">
-        <v>0.5446581966212721</v>
+        <v>0.54465819662127213</v>
       </c>
       <c r="T3" s="8">
         <v>10.366666666666667</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
+    <row r="4" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>26</v>
       </c>
       <c r="B4" s="8">
-        <v>75.79166666666667</v>
+        <v>75.791666666666671</v>
       </c>
       <c r="C4" s="8">
         <v>1.0833333333333333</v>
       </c>
       <c r="D4" s="8">
-        <v>0.5075</v>
+        <v>0.50749999999999995</v>
       </c>
       <c r="E4" s="8">
         <v>4.833333333333333</v>
@@ -821,7 +867,7 @@
         <v>18.833333333333332</v>
       </c>
       <c r="H4" s="8">
-        <v>6.306471596572216</v>
+        <v>6.3064715965722158</v>
       </c>
       <c r="I4" s="8">
         <v>34.583333333333336</v>
@@ -830,13 +876,13 @@
         <v>18.533333333333335</v>
       </c>
       <c r="K4" s="8">
-        <v>4.680416666666667</v>
+        <v>4.6804166666666669</v>
       </c>
       <c r="L4" s="8">
-        <v>0.9979166666666668</v>
+        <v>0.99791666666666679</v>
       </c>
       <c r="M4" s="8">
-        <v>0.5526666666666668</v>
+        <v>0.55266666666666675</v>
       </c>
       <c r="N4" s="8">
         <v>2.9943023939727005</v>
@@ -848,33 +894,33 @@
         <v>12.108333333333333</v>
       </c>
       <c r="Q4" s="8">
-        <v>0.6864759354630044</v>
+        <v>0.68647593546300445</v>
       </c>
       <c r="R4" s="8">
-        <v>0.4691185855484956</v>
+        <v>0.46911858554849561</v>
       </c>
       <c r="S4" s="8">
-        <v>0.5765825882954512</v>
+        <v>0.57658258829545117</v>
       </c>
       <c r="T4" s="8">
         <v>13.1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
+    <row r="5" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>27</v>
       </c>
       <c r="B5" s="8">
-        <v>72.45833333333333</v>
+        <v>72.458333333333329</v>
       </c>
       <c r="C5" s="8">
         <v>4.25</v>
       </c>
       <c r="D5" s="8">
-        <v>0.5316666666666666</v>
+        <v>0.53166666666666662</v>
       </c>
       <c r="E5" s="8">
-        <v>9.416666666666666</v>
+        <v>9.4166666666666661</v>
       </c>
       <c r="F5" s="8">
         <v>4.333333333333333</v>
@@ -883,7 +929,7 @@
         <v>27.916666666666668</v>
       </c>
       <c r="H5" s="8">
-        <v>6.078646716273528</v>
+        <v>6.0786467162735276</v>
       </c>
       <c r="I5" s="8">
         <v>71.25</v>
@@ -892,13 +938,13 @@
         <v>20.75</v>
       </c>
       <c r="K5" s="8">
-        <v>3.417083333333333</v>
+        <v>3.4170833333333328</v>
       </c>
       <c r="L5" s="8">
-        <v>0.9708333333333332</v>
+        <v>0.97083333333333321</v>
       </c>
       <c r="M5" s="8">
-        <v>0.5481666666666666</v>
+        <v>0.54816666666666658</v>
       </c>
       <c r="N5" s="8">
         <v>2.1986452934723224</v>
@@ -910,30 +956,30 @@
         <v>15.591666666666667</v>
       </c>
       <c r="Q5" s="8">
-        <v>0.6259932428682429</v>
+        <v>0.62599324286824287</v>
       </c>
       <c r="R5" s="8">
         <v>0.46923461381613557</v>
       </c>
       <c r="S5" s="8">
-        <v>0.5571214687754543</v>
+        <v>0.55712146877545432</v>
       </c>
       <c r="T5" s="8">
         <v>12.166666666666666</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
+    <row r="6" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>28</v>
       </c>
       <c r="B6" s="8">
-        <v>83.16666666666667</v>
+        <v>83.166666666666671</v>
       </c>
       <c r="C6" s="8">
         <v>3.6666666666666665</v>
       </c>
       <c r="D6" s="8">
-        <v>0.5466666666666665</v>
+        <v>0.54666666666666652</v>
       </c>
       <c r="E6" s="8">
         <v>7.666666666666667</v>
@@ -945,25 +991,25 @@
         <v>25.416666666666668</v>
       </c>
       <c r="H6" s="8">
-        <v>6.570241651227904</v>
+        <v>6.5702416512279038</v>
       </c>
       <c r="I6" s="8">
         <v>53.75</v>
       </c>
       <c r="J6" s="8">
-        <v>21.025</v>
+        <v>21.024999999999999</v>
       </c>
       <c r="K6" s="8">
         <v>3.6374999999999997</v>
       </c>
       <c r="L6" s="8">
-        <v>0.9666666666666667</v>
+        <v>0.96666666666666667</v>
       </c>
       <c r="M6" s="8">
-        <v>0.5540833333333334</v>
+        <v>0.55408333333333337</v>
       </c>
       <c r="N6" s="8">
-        <v>2.302431617694815</v>
+        <v>2.3024316176948152</v>
       </c>
       <c r="O6" s="8">
         <v>98.5</v>
@@ -975,16 +1021,16 @@
         <v>0.7426959282263631</v>
       </c>
       <c r="R6" s="8">
-        <v>0.4654135532342054</v>
+        <v>0.46541355323420541</v>
       </c>
       <c r="S6" s="8">
-        <v>0.5758138010540185</v>
+        <v>0.57581380105401847</v>
       </c>
       <c r="T6" s="8">
         <v>13.666666666666666</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
+    <row r="7" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>29</v>
       </c>
@@ -995,10 +1041,10 @@
         <v>2.9166666666666665</v>
       </c>
       <c r="D7" s="8">
-        <v>0.5749999999999998</v>
+        <v>0.57499999999999984</v>
       </c>
       <c r="E7" s="8">
-        <v>8.833333333333334</v>
+        <v>8.8333333333333339</v>
       </c>
       <c r="F7" s="8">
         <v>4.333333333333333</v>
@@ -1007,7 +1053,7 @@
         <v>23.666666666666668</v>
       </c>
       <c r="H7" s="8">
-        <v>7.169336611456177</v>
+        <v>7.1693366114561767</v>
       </c>
       <c r="I7" s="8">
         <v>49.5</v>
@@ -1019,34 +1065,34 @@
         <v>3.5487499999999996</v>
       </c>
       <c r="L7" s="8">
-        <v>0.9983333333333332</v>
+        <v>0.99833333333333318</v>
       </c>
       <c r="M7" s="8">
-        <v>0.525</v>
+        <v>0.52500000000000002</v>
       </c>
       <c r="N7" s="8">
-        <v>2.295770718545618</v>
+        <v>2.2957707185456182</v>
       </c>
       <c r="O7" s="8">
-        <v>89.16666666666667</v>
+        <v>89.166666666666671</v>
       </c>
       <c r="P7" s="8">
         <v>10.9</v>
       </c>
       <c r="Q7" s="8">
-        <v>0.6627490805818894</v>
+        <v>0.66274908058188942</v>
       </c>
       <c r="R7" s="8">
         <v>0.45730988567433073</v>
       </c>
       <c r="S7" s="8">
-        <v>0.5731666767379583</v>
+        <v>0.57316667673795829</v>
       </c>
       <c r="T7" s="8">
         <v>11.233333333333334</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
+    <row r="8" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>30</v>
       </c>
@@ -1057,7 +1103,7 @@
         <v>1.9166666666666667</v>
       </c>
       <c r="D8" s="8">
-        <v>0.4575</v>
+        <v>0.45750000000000002</v>
       </c>
       <c r="E8" s="8">
         <v>7.083333333333333</v>
@@ -1078,37 +1124,37 @@
         <v>15.908333333333337</v>
       </c>
       <c r="K8" s="8">
-        <v>4.05875</v>
+        <v>4.0587499999999999</v>
       </c>
       <c r="L8" s="8">
         <v>1.0254999999999999</v>
       </c>
       <c r="M8" s="8">
-        <v>0.5925833333333334</v>
+        <v>0.59258333333333335</v>
       </c>
       <c r="N8" s="8">
-        <v>2.912553959566942</v>
+        <v>2.9125539595669419</v>
       </c>
       <c r="O8" s="8">
-        <v>84.16666666666667</v>
+        <v>84.166666666666671</v>
       </c>
       <c r="P8" s="8">
-        <v>9.524999999999999</v>
+        <v>9.5249999999999986</v>
       </c>
       <c r="Q8" s="8">
-        <v>0.6699033954843746</v>
+        <v>0.66990339548437461</v>
       </c>
       <c r="R8" s="8">
-        <v>0.5269702688880321</v>
+        <v>0.52697026888803211</v>
       </c>
       <c r="S8" s="8">
-        <v>0.5772061874851155</v>
+        <v>0.57720618748511554</v>
       </c>
       <c r="T8" s="8">
         <v>13.299999999999999</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
+    <row r="9" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>31</v>
       </c>
@@ -1119,7 +1165,7 @@
         <v>1.1666666666666667</v>
       </c>
       <c r="D9" s="8">
-        <v>0.5625000000000001</v>
+        <v>0.56250000000000011</v>
       </c>
       <c r="E9" s="8">
         <v>7.75</v>
@@ -1140,13 +1186,13 @@
         <v>19.599999999999998</v>
       </c>
       <c r="K9" s="8">
-        <v>4.000416666666666</v>
+        <v>4.0004166666666663</v>
       </c>
       <c r="L9" s="8">
         <v>1.2029166666666666</v>
       </c>
       <c r="M9" s="8">
-        <v>0.5398333333333333</v>
+        <v>0.53983333333333328</v>
       </c>
       <c r="N9" s="8">
         <v>2.5442845776894605</v>
@@ -1158,19 +1204,19 @@
         <v>12.5</v>
       </c>
       <c r="Q9" s="8">
-        <v>0.7301292870464534</v>
+        <v>0.73012928704645341</v>
       </c>
       <c r="R9" s="8">
-        <v>0.4718917154954824</v>
+        <v>0.47189171549548242</v>
       </c>
       <c r="S9" s="8">
-        <v>0.5886870325689729</v>
+        <v>0.58868703256897292</v>
       </c>
       <c r="T9" s="8">
         <v>12.5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
+    <row r="10" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>32</v>
       </c>
@@ -1181,7 +1227,7 @@
         <v>1.8333333333333333</v>
       </c>
       <c r="D10" s="8">
-        <v>0.545</v>
+        <v>0.54500000000000004</v>
       </c>
       <c r="E10" s="8">
         <v>6.916666666666667</v>
@@ -1193,22 +1239,22 @@
         <v>26.416666666666668</v>
       </c>
       <c r="H10" s="8">
-        <v>6.198949509529606</v>
+        <v>6.1989495095296059</v>
       </c>
       <c r="I10" s="8">
         <v>62.916666666666664</v>
       </c>
       <c r="J10" s="8">
-        <v>23.34166666666667</v>
+        <v>23.341666666666669</v>
       </c>
       <c r="K10" s="8">
         <v>3.4983333333333335</v>
       </c>
       <c r="L10" s="8">
-        <v>0.9199999999999999</v>
+        <v>0.91999999999999993</v>
       </c>
       <c r="M10" s="8">
-        <v>0.57675</v>
+        <v>0.57674999999999998</v>
       </c>
       <c r="N10" s="8">
         <v>2.2780304890376972</v>
@@ -1220,19 +1266,19 @@
         <v>15.758333333333335</v>
       </c>
       <c r="Q10" s="8">
-        <v>0.711791093387289</v>
+        <v>0.71179109338728896</v>
       </c>
       <c r="R10" s="8">
         <v>0.48682714568040647</v>
       </c>
       <c r="S10" s="8">
-        <v>0.5686189796515883</v>
+        <v>0.56861897965158825</v>
       </c>
       <c r="T10" s="8">
         <v>13.366666666666667</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
+    <row r="11" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>33</v>
       </c>
@@ -1240,10 +1286,10 @@
         <v>56</v>
       </c>
       <c r="C11" s="8">
-        <v>0.9166666666666666</v>
+        <v>0.91666666666666663</v>
       </c>
       <c r="D11" s="8">
-        <v>0.5833333333333333</v>
+        <v>0.58333333333333326</v>
       </c>
       <c r="E11" s="8">
         <v>5.333333333333333</v>
@@ -1255,7 +1301,7 @@
         <v>25.75</v>
       </c>
       <c r="H11" s="8">
-        <v>5.262311372360393</v>
+        <v>5.2623113723603927</v>
       </c>
       <c r="I11" s="8">
         <v>38.416666666666664</v>
@@ -1264,42 +1310,42 @@
         <v>17.974999999999998</v>
       </c>
       <c r="K11" s="8">
-        <v>4.139166666666667</v>
+        <v>4.1391666666666671</v>
       </c>
       <c r="L11" s="8">
-        <v>0.985</v>
+        <v>0.98499999999999999</v>
       </c>
       <c r="M11" s="8">
-        <v>0.5910000000000001</v>
+        <v>0.59100000000000008</v>
       </c>
       <c r="N11" s="8">
-        <v>2.364211508578699</v>
+        <v>2.3642115085786992</v>
       </c>
       <c r="O11" s="8">
-        <v>89.16666666666667</v>
+        <v>89.166666666666671</v>
       </c>
       <c r="P11" s="8">
         <v>11.958333333333334</v>
       </c>
       <c r="Q11" s="8">
-        <v>0.6524440781440782</v>
+        <v>0.65244407814407823</v>
       </c>
       <c r="R11" s="8">
         <v>0.49859821784149744</v>
       </c>
       <c r="S11" s="8">
-        <v>0.5970967934883505</v>
+        <v>0.59709679348835054</v>
       </c>
       <c r="T11" s="8">
         <v>13.799999999999999</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
+    <row r="12" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>36</v>
       </c>
       <c r="B12" s="8">
-        <v>88.667</v>
+        <v>88.667000000000002</v>
       </c>
       <c r="C12" s="8">
         <v>1.75</v>
@@ -1311,16 +1357,16 @@
         <v>10.08</v>
       </c>
       <c r="F12" s="8">
-        <v>2.916667</v>
+        <v>2.9166669999999999</v>
       </c>
       <c r="G12" s="8">
         <v>21</v>
       </c>
       <c r="H12" s="8">
-        <v>5.923333</v>
+        <v>5.9233330000000004</v>
       </c>
       <c r="I12" s="8">
-        <v>40.16667</v>
+        <v>40.166670000000003</v>
       </c>
       <c r="J12" s="8">
         <v>24.33333</v>
@@ -1329,45 +1375,45 @@
         <v>40.98</v>
       </c>
       <c r="L12" s="8">
-        <v>8.883333</v>
+        <v>8.8833330000000004</v>
       </c>
       <c r="M12" s="8">
-        <v>5.623333</v>
+        <v>5.6233329999999997</v>
       </c>
       <c r="N12" s="8">
-        <v>2.45</v>
+        <v>2.4500000000000002</v>
       </c>
       <c r="O12" s="8">
-        <v>89.08333</v>
+        <v>89.083330000000004</v>
       </c>
       <c r="P12" s="8">
         <v>25.08</v>
       </c>
       <c r="Q12" s="8">
-        <v>7.173333</v>
+        <v>7.1733330000000004</v>
       </c>
       <c r="R12" s="8">
-        <v>5.873333</v>
+        <v>5.8733329999999997</v>
       </c>
       <c r="S12" s="8">
-        <v>4.673333</v>
+        <v>4.6733330000000004</v>
       </c>
       <c r="T12" s="8">
-        <v>13.70667</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
+        <v>13.706670000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>37</v>
       </c>
       <c r="B13" s="8">
-        <v>77.833</v>
+        <v>77.832999999999998</v>
       </c>
       <c r="C13" s="8">
         <v>1</v>
       </c>
       <c r="D13" s="8">
-        <v>5.425</v>
+        <v>5.4249999999999998</v>
       </c>
       <c r="E13" s="8">
         <v>10.33</v>
@@ -1379,19 +1425,19 @@
         <v>29.08333</v>
       </c>
       <c r="H13" s="8">
-        <v>5.906667</v>
+        <v>5.9066669999999997</v>
       </c>
       <c r="I13" s="8">
         <v>66.75</v>
       </c>
       <c r="J13" s="8">
-        <v>22.63333</v>
+        <v>22.633330000000001</v>
       </c>
       <c r="K13" s="8">
-        <v>34.55667</v>
+        <v>34.556669999999997</v>
       </c>
       <c r="L13" s="8">
-        <v>8.136667</v>
+        <v>8.1366669999999992</v>
       </c>
       <c r="M13" s="8">
         <v>4.72</v>
@@ -1400,7 +1446,7 @@
         <v>2.326667</v>
       </c>
       <c r="O13" s="8">
-        <v>129.71667</v>
+        <v>129.71666999999999</v>
       </c>
       <c r="P13" s="8">
         <v>27.58</v>
@@ -1418,7 +1464,7 @@
         <v>10.38</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
+    <row r="14" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>38</v>
       </c>
@@ -1426,25 +1472,25 @@
         <v>60.75</v>
       </c>
       <c r="C14" s="8">
-        <v>1.583333</v>
+        <v>1.5833330000000001</v>
       </c>
       <c r="D14" s="8">
-        <v>5.066667</v>
+        <v>5.0666669999999998</v>
       </c>
       <c r="E14" s="8">
         <v>6.16</v>
       </c>
       <c r="F14" s="8">
-        <v>3.166667</v>
+        <v>3.1666669999999999</v>
       </c>
       <c r="G14" s="8">
         <v>20.16667</v>
       </c>
       <c r="H14" s="8">
-        <v>6.406667</v>
+        <v>6.4066669999999997</v>
       </c>
       <c r="I14" s="8">
-        <v>37.66667</v>
+        <v>37.666670000000003</v>
       </c>
       <c r="J14" s="8">
         <v>25.34</v>
@@ -1456,13 +1502,13 @@
         <v>10.063333</v>
       </c>
       <c r="M14" s="8">
-        <v>5.866667</v>
+        <v>5.8666669999999996</v>
       </c>
       <c r="N14" s="8">
-        <v>2.526667</v>
+        <v>2.5266670000000002</v>
       </c>
       <c r="O14" s="8">
-        <v>98.83333</v>
+        <v>98.833330000000004</v>
       </c>
       <c r="P14" s="8">
         <v>31.32</v>
@@ -1474,66 +1520,66 @@
         <v>6.693333</v>
       </c>
       <c r="S14" s="8">
-        <v>5.543333</v>
+        <v>5.5433329999999996</v>
       </c>
       <c r="T14" s="8">
-        <v>18.66333</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
+        <v>18.663329999999998</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>39</v>
       </c>
       <c r="B15" s="8">
-        <v>89.083</v>
+        <v>89.082999999999998</v>
       </c>
       <c r="C15" s="8">
         <v>2.25</v>
       </c>
       <c r="D15" s="8">
-        <v>6.175</v>
+        <v>6.1749999999999998</v>
       </c>
       <c r="E15" s="8">
         <v>10.5</v>
       </c>
       <c r="F15" s="8">
-        <v>4.566667</v>
+        <v>4.5666669999999998</v>
       </c>
       <c r="G15" s="8">
         <v>23.08333</v>
       </c>
       <c r="H15" s="8">
-        <v>4.953333</v>
+        <v>4.9533329999999998</v>
       </c>
       <c r="I15" s="8">
         <v>51.25</v>
       </c>
       <c r="J15" s="8">
-        <v>45.58333</v>
+        <v>45.583329999999997</v>
       </c>
       <c r="K15" s="8">
-        <v>47.45667</v>
+        <v>47.456670000000003</v>
       </c>
       <c r="L15" s="8">
-        <v>9.623333</v>
+        <v>9.6233330000000006</v>
       </c>
       <c r="M15" s="8">
-        <v>6.583333</v>
+        <v>6.5833329999999997</v>
       </c>
       <c r="N15" s="8">
-        <v>2.366667</v>
+        <v>2.3666670000000001</v>
       </c>
       <c r="O15" s="8">
-        <v>132.42333</v>
+        <v>132.42332999999999</v>
       </c>
       <c r="P15" s="8">
         <v>20.5</v>
       </c>
       <c r="Q15" s="8">
-        <v>8.273333</v>
+        <v>8.2733329999999992</v>
       </c>
       <c r="R15" s="8">
-        <v>6.626667</v>
+        <v>6.6266670000000003</v>
       </c>
       <c r="S15" s="8">
         <v>5.53</v>
@@ -1542,18 +1588,18 @@
         <v>21.16</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
+    <row r="16" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>40</v>
       </c>
       <c r="B16" s="8">
-        <v>68.583</v>
+        <v>68.582999999999998</v>
       </c>
       <c r="C16" s="8">
-        <v>2.416667</v>
+        <v>2.4166669999999999</v>
       </c>
       <c r="D16" s="8">
-        <v>4.841667</v>
+        <v>4.8416670000000002</v>
       </c>
       <c r="E16" s="8">
         <v>14.25</v>
@@ -1565,28 +1611,28 @@
         <v>28.33333</v>
       </c>
       <c r="H16" s="8">
-        <v>6.803333</v>
+        <v>6.8033330000000003</v>
       </c>
       <c r="I16" s="8">
-        <v>74.08333</v>
+        <v>74.083330000000004</v>
       </c>
       <c r="J16" s="8">
-        <v>22.61333</v>
+        <v>22.613330000000001</v>
       </c>
       <c r="K16" s="8">
         <v>35.35333</v>
       </c>
       <c r="L16" s="8">
-        <v>7.896667</v>
+        <v>7.8966669999999999</v>
       </c>
       <c r="M16" s="8">
-        <v>5.603333</v>
+        <v>5.6033330000000001</v>
       </c>
       <c r="N16" s="8">
-        <v>2.376667</v>
+        <v>2.3766669999999999</v>
       </c>
       <c r="O16" s="8">
-        <v>138.41667</v>
+        <v>138.41667000000001</v>
       </c>
       <c r="P16" s="8">
         <v>38.19</v>
@@ -1595,24 +1641,24 @@
         <v>6.766667</v>
       </c>
       <c r="R16" s="8">
-        <v>5.553333</v>
+        <v>5.5533330000000003</v>
       </c>
       <c r="S16" s="8">
-        <v>4.673333</v>
+        <v>4.6733330000000004</v>
       </c>
       <c r="T16" s="8">
         <v>12.35</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
+    <row r="17" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>41</v>
       </c>
       <c r="B17" s="8">
-        <v>65.917</v>
+        <v>65.917000000000002</v>
       </c>
       <c r="C17" s="8">
-        <v>2.916667</v>
+        <v>2.9166669999999999</v>
       </c>
       <c r="D17" s="8">
         <v>5.233333</v>
@@ -1627,16 +1673,16 @@
         <v>25.25</v>
       </c>
       <c r="H17" s="8">
-        <v>7.093333</v>
+        <v>7.0933330000000003</v>
       </c>
       <c r="I17" s="8">
-        <v>49.83333</v>
+        <v>49.833329999999997</v>
       </c>
       <c r="J17" s="8">
-        <v>23.97333</v>
+        <v>23.973330000000001</v>
       </c>
       <c r="K17" s="8">
-        <v>50.53333</v>
+        <v>50.533329999999999</v>
       </c>
       <c r="L17" s="8">
         <v>9.266667</v>
@@ -1645,7 +1691,7 @@
         <v>6.13</v>
       </c>
       <c r="N17" s="8">
-        <v>2.656667</v>
+        <v>2.6566670000000001</v>
       </c>
       <c r="O17" s="8">
         <v>124.5</v>
@@ -1657,16 +1703,16 @@
         <v>7.85</v>
       </c>
       <c r="R17" s="8">
-        <v>6.246667</v>
+        <v>6.2466670000000004</v>
       </c>
       <c r="S17" s="8">
         <v>4.766667</v>
       </c>
       <c r="T17" s="8">
-        <v>17.46333</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
+        <v>17.463329999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>42</v>
       </c>
@@ -1683,13 +1729,13 @@
         <v>12.75</v>
       </c>
       <c r="F18" s="8">
-        <v>3.583333</v>
+        <v>3.5833330000000001</v>
       </c>
       <c r="G18" s="8">
         <v>23.08333</v>
       </c>
       <c r="H18" s="8">
-        <v>5.526667</v>
+        <v>5.5266669999999998</v>
       </c>
       <c r="I18" s="8">
         <v>37.75</v>
@@ -1698,75 +1744,75 @@
         <v>24.16667</v>
       </c>
       <c r="K18" s="8">
-        <v>37.86667</v>
+        <v>37.866669999999999</v>
       </c>
       <c r="L18" s="8">
-        <v>7.293333</v>
+        <v>7.2933329999999996</v>
       </c>
       <c r="M18" s="8">
-        <v>4.586667</v>
+        <v>4.5866670000000003</v>
       </c>
       <c r="N18" s="8">
         <v>2.693333</v>
       </c>
       <c r="O18" s="8">
-        <v>83.13333</v>
+        <v>83.133330000000001</v>
       </c>
       <c r="P18" s="8">
         <v>15.17</v>
       </c>
       <c r="Q18" s="8">
-        <v>6.506667</v>
+        <v>6.5066670000000002</v>
       </c>
       <c r="R18" s="8">
-        <v>5.116667</v>
+        <v>5.1166669999999996</v>
       </c>
       <c r="S18" s="8">
-        <v>4.363333</v>
+        <v>4.3633329999999999</v>
       </c>
       <c r="T18" s="8">
-        <v>13.30333</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
+        <v>13.303330000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>43</v>
       </c>
       <c r="B19" s="8">
-        <v>81.417</v>
+        <v>81.417000000000002</v>
       </c>
       <c r="C19" s="8">
         <v>2.75</v>
       </c>
       <c r="D19" s="8">
-        <v>4.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="E19" s="8">
         <v>7.08</v>
       </c>
       <c r="F19" s="8">
-        <v>2.166667</v>
+        <v>2.1666669999999999</v>
       </c>
       <c r="G19" s="8">
         <v>18.41667</v>
       </c>
       <c r="H19" s="8">
-        <v>5.423333</v>
+        <v>5.4233330000000004</v>
       </c>
       <c r="I19" s="8">
-        <v>32.83333</v>
+        <v>32.833329999999997</v>
       </c>
       <c r="J19" s="8">
         <v>24.26</v>
       </c>
       <c r="K19" s="8">
-        <v>46.55667</v>
+        <v>46.556669999999997</v>
       </c>
       <c r="L19" s="8">
         <v>9.18</v>
       </c>
       <c r="M19" s="8">
-        <v>6.113333</v>
+        <v>6.1133329999999999</v>
       </c>
       <c r="N19" s="8">
         <v>3.01</v>
@@ -1778,36 +1824,36 @@
         <v>30.06</v>
       </c>
       <c r="Q19" s="8">
-        <v>7.343333</v>
+        <v>7.3433330000000003</v>
       </c>
       <c r="R19" s="8">
-        <v>6.223333</v>
+        <v>6.2233330000000002</v>
       </c>
       <c r="S19" s="8">
-        <v>5.283333</v>
+        <v>5.2833329999999998</v>
       </c>
       <c r="T19" s="8">
-        <v>17.47333</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
+        <v>17.473330000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
         <v>44</v>
       </c>
       <c r="B20" s="8">
-        <v>75.333</v>
+        <v>75.332999999999998</v>
       </c>
       <c r="C20" s="8">
-        <v>3.166667</v>
+        <v>3.1666669999999999</v>
       </c>
       <c r="D20" s="8">
-        <v>6.175</v>
+        <v>6.1749999999999998</v>
       </c>
       <c r="E20" s="8">
         <v>10.58</v>
       </c>
       <c r="F20" s="8">
-        <v>4.666667</v>
+        <v>4.6666670000000003</v>
       </c>
       <c r="G20" s="8">
         <v>23.91667</v>
@@ -1816,48 +1862,48 @@
         <v>6.41</v>
       </c>
       <c r="I20" s="8">
-        <v>51.66667</v>
+        <v>51.666670000000003</v>
       </c>
       <c r="J20" s="8">
-        <v>19.08</v>
+        <v>19.079999999999998</v>
       </c>
       <c r="K20" s="8">
-        <v>44.04667</v>
+        <v>44.046669999999999</v>
       </c>
       <c r="L20" s="8">
-        <v>9.176667</v>
+        <v>9.1766670000000001</v>
       </c>
       <c r="M20" s="8">
-        <v>4.863333</v>
+        <v>4.8633329999999999</v>
       </c>
       <c r="N20" s="8">
         <v>2.76</v>
       </c>
       <c r="O20" s="8">
-        <v>99.49667</v>
+        <v>99.496669999999995</v>
       </c>
       <c r="P20" s="8">
         <v>35.21</v>
       </c>
       <c r="Q20" s="8">
-        <v>7.256667</v>
+        <v>7.2566670000000002</v>
       </c>
       <c r="R20" s="8">
-        <v>5.853333</v>
+        <v>5.8533330000000001</v>
       </c>
       <c r="S20" s="8">
-        <v>4.513333</v>
+        <v>4.5133330000000003</v>
       </c>
       <c r="T20" s="8">
-        <v>14.54667</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5">
+        <v>14.546670000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>45</v>
       </c>
       <c r="B21" s="8">
-        <v>76.583</v>
+        <v>76.582999999999998</v>
       </c>
       <c r="C21" s="8">
         <v>1</v>
@@ -1869,16 +1915,16 @@
         <v>10.83</v>
       </c>
       <c r="F21" s="8">
-        <v>4.416667</v>
+        <v>4.4166670000000003</v>
       </c>
       <c r="G21" s="8">
         <v>25.08333</v>
       </c>
       <c r="H21" s="8">
-        <v>6.666667</v>
+        <v>6.6666670000000003</v>
       </c>
       <c r="I21" s="8">
-        <v>68.41667</v>
+        <v>68.416669999999996</v>
       </c>
       <c r="J21" s="8">
         <v>25.3</v>
@@ -1887,16 +1933,16 @@
         <v>41.21</v>
       </c>
       <c r="L21" s="8">
-        <v>8.176667</v>
+        <v>8.1766670000000001</v>
       </c>
       <c r="M21" s="8">
-        <v>5.406667</v>
+        <v>5.4066669999999997</v>
       </c>
       <c r="N21" s="8">
-        <v>2.24</v>
+        <v>2.2400000000000002</v>
       </c>
       <c r="O21" s="8">
-        <v>98.33333</v>
+        <v>98.333330000000004</v>
       </c>
       <c r="P21" s="8">
         <v>29.73</v>
@@ -1914,7 +1960,7 @@
         <v>11.93</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5">
+    <row r="22" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
         <v>48</v>
       </c>
@@ -1925,7 +1971,7 @@
         <v>12.333333333333334</v>
       </c>
       <c r="D22" s="8">
-        <v>5.408333333333334</v>
+        <v>5.4083333333333341</v>
       </c>
       <c r="E22" s="8">
         <v>4.833333333333333</v>
@@ -1937,7 +1983,7 @@
         <v>12.583333333333334</v>
       </c>
       <c r="H22" s="8">
-        <v>6.341440966440966</v>
+        <v>6.3414409664409659</v>
       </c>
       <c r="I22" s="8">
         <v>59.333333333333336</v>
@@ -1949,7 +1995,7 @@
         <v>39.197916666666664</v>
       </c>
       <c r="L22" s="8">
-        <v>8.552083333333334</v>
+        <v>8.5520833333333339</v>
       </c>
       <c r="M22" s="8">
         <v>4.925416666666667</v>
@@ -1967,16 +2013,16 @@
         <v>7.2875000000000005</v>
       </c>
       <c r="R22" s="8">
-        <v>5.772083333333334</v>
+        <v>5.7720833333333337</v>
       </c>
       <c r="S22" s="8">
-        <v>4.505</v>
+        <v>4.5049999999999999</v>
       </c>
       <c r="T22" s="8">
         <v>12.533333333333333</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="19.5">
+    <row r="23" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
         <v>58</v>
       </c>
@@ -1987,7 +2033,7 @@
         <v>12.333333333333334</v>
       </c>
       <c r="D23" s="8">
-        <v>6.175</v>
+        <v>6.1749999999999998</v>
       </c>
       <c r="E23" s="8">
         <v>7</v>
@@ -1999,25 +2045,25 @@
         <v>21.666666666666668</v>
       </c>
       <c r="H23" s="8">
-        <v>6.400414400414401</v>
+        <v>6.4004144004144008</v>
       </c>
       <c r="I23" s="8">
         <v>52.75</v>
       </c>
       <c r="J23" s="8">
-        <v>15.17499805600015</v>
+        <v>15.174998056000151</v>
       </c>
       <c r="K23" s="8">
         <v>40.206250000000004</v>
       </c>
       <c r="L23" s="8">
-        <v>9.197083333333333</v>
+        <v>9.1970833333333335</v>
       </c>
       <c r="M23" s="8">
         <v>5.166666666666667</v>
       </c>
       <c r="N23" s="8">
-        <v>2.408333333333333</v>
+        <v>2.4083333333333332</v>
       </c>
       <c r="O23" s="8">
         <v>108.58333333333333</v>
@@ -2026,30 +2072,30 @@
         <v>12.149999028000076</v>
       </c>
       <c r="Q23" s="8">
-        <v>7.572083333333333</v>
+        <v>7.5720833333333326</v>
       </c>
       <c r="R23" s="8">
-        <v>6.366666666666667</v>
+        <v>6.3666666666666671</v>
       </c>
       <c r="S23" s="8">
-        <v>4.913333333333333</v>
+        <v>4.9133333333333331</v>
       </c>
       <c r="T23" s="8">
         <v>14.666666666666666</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="19.5">
+    <row r="24" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
         <v>50</v>
       </c>
       <c r="B24" s="8">
-        <v>88.33333333333333</v>
+        <v>88.333333333333329</v>
       </c>
       <c r="C24" s="8">
         <v>11.75</v>
       </c>
       <c r="D24" s="8">
-        <v>7.150000000000001</v>
+        <v>7.1500000000000012</v>
       </c>
       <c r="E24" s="8">
         <v>7.75</v>
@@ -2061,7 +2107,7 @@
         <v>14.916666666666666</v>
       </c>
       <c r="H24" s="8">
-        <v>5.823147685647687</v>
+        <v>5.8231476856476867</v>
       </c>
       <c r="I24" s="8">
         <v>62.416666666666664</v>
@@ -2073,13 +2119,13 @@
         <v>45.2575</v>
       </c>
       <c r="L24" s="8">
-        <v>9.994166666666667</v>
+        <v>9.9941666666666666</v>
       </c>
       <c r="M24" s="8">
         <v>5.617916666666666</v>
       </c>
       <c r="N24" s="8">
-        <v>2.591666666666667</v>
+        <v>2.5916666666666668</v>
       </c>
       <c r="O24" s="8">
         <v>119.41666666666667</v>
@@ -2088,19 +2134,19 @@
         <v>10.690276922555624</v>
       </c>
       <c r="Q24" s="8">
-        <v>8.007083333333332</v>
+        <v>8.0070833333333322</v>
       </c>
       <c r="R24" s="8">
-        <v>6.476666666666667</v>
+        <v>6.4766666666666666</v>
       </c>
       <c r="S24" s="8">
-        <v>5.085833333333333</v>
+        <v>5.0858333333333334</v>
       </c>
       <c r="T24" s="8">
         <v>18.533333333333335</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="19.5">
+    <row r="25" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
         <v>51</v>
       </c>
@@ -2111,7 +2157,7 @@
         <v>11.5</v>
       </c>
       <c r="D25" s="8">
-        <v>6.483333333333334</v>
+        <v>6.4833333333333343</v>
       </c>
       <c r="E25" s="8">
         <v>5.666666666666667</v>
@@ -2132,7 +2178,7 @@
         <v>17.730553651777928</v>
       </c>
       <c r="K25" s="8">
-        <v>50.90375</v>
+        <v>50.903750000000002</v>
       </c>
       <c r="L25" s="8">
         <v>11.004166666666668</v>
@@ -2141,28 +2187,28 @@
         <v>5.6625000000000005</v>
       </c>
       <c r="N25" s="8">
-        <v>2.45</v>
+        <v>2.4500000000000002</v>
       </c>
       <c r="O25" s="8">
-        <v>87.16666666666667</v>
+        <v>87.166666666666671</v>
       </c>
       <c r="P25" s="8">
         <v>11.898610159222299</v>
       </c>
       <c r="Q25" s="8">
-        <v>8.7875</v>
+        <v>8.7874999999999996</v>
       </c>
       <c r="R25" s="8">
-        <v>6.823333333333333</v>
+        <v>6.8233333333333333</v>
       </c>
       <c r="S25" s="8">
-        <v>5.379166666666666</v>
+        <v>5.3791666666666664</v>
       </c>
       <c r="T25" s="8">
-        <v>17.53333333333333</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="19.5">
+        <v>17.533333333333331</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
         <v>52</v>
       </c>
@@ -2185,7 +2231,7 @@
         <v>13.5</v>
       </c>
       <c r="H26" s="8">
-        <v>5.691575785325785</v>
+        <v>5.6915757853257851</v>
       </c>
       <c r="I26" s="8">
         <v>73.75</v>
@@ -2194,13 +2240,13 @@
         <v>14.741664680000156</v>
       </c>
       <c r="K26" s="8">
-        <v>35.90958333333334</v>
+        <v>35.909583333333337</v>
       </c>
       <c r="L26" s="8">
-        <v>8.28</v>
+        <v>8.2799999999999994</v>
       </c>
       <c r="M26" s="8">
-        <v>5.351666666666667</v>
+        <v>5.3516666666666666</v>
       </c>
       <c r="N26" s="8">
         <v>2.4333333333333336</v>
@@ -2212,24 +2258,24 @@
         <v>12.416665673333412</v>
       </c>
       <c r="Q26" s="8">
-        <v>7.282499999999999</v>
+        <v>7.2824999999999989</v>
       </c>
       <c r="R26" s="8">
         <v>5.67875</v>
       </c>
       <c r="S26" s="8">
-        <v>4.65</v>
+        <v>4.6500000000000004</v>
       </c>
       <c r="T26" s="8">
         <v>14.199999999999998</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="19.5">
+    <row r="27" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
         <v>53</v>
       </c>
       <c r="B27" s="8">
-        <v>87.16666666666667</v>
+        <v>87.166666666666671</v>
       </c>
       <c r="C27" s="8">
         <v>11.666666666666666</v>
@@ -2247,28 +2293,28 @@
         <v>13.583333333333334</v>
       </c>
       <c r="H27" s="8">
-        <v>5.815108502608503</v>
+        <v>5.8151085026085028</v>
       </c>
       <c r="I27" s="8">
         <v>46.916666666666664</v>
       </c>
       <c r="J27" s="8">
-        <v>16.86944265288903</v>
+        <v>16.869442652889031</v>
       </c>
       <c r="K27" s="8">
-        <v>42.21375</v>
+        <v>42.213749999999997</v>
       </c>
       <c r="L27" s="8">
-        <v>9.47875</v>
+        <v>9.4787499999999998</v>
       </c>
       <c r="M27" s="8">
-        <v>5.189583333333334</v>
+        <v>5.1895833333333341</v>
       </c>
       <c r="N27" s="8">
-        <v>2.783333333333333</v>
+        <v>2.7833333333333332</v>
       </c>
       <c r="O27" s="8">
-        <v>97.41666666666667</v>
+        <v>97.416666666666671</v>
       </c>
       <c r="P27" s="8">
         <v>11.197221326444515</v>
@@ -2277,27 +2323,27 @@
         <v>7.618125</v>
       </c>
       <c r="R27" s="8">
-        <v>6.304583333333333</v>
+        <v>6.3045833333333334</v>
       </c>
       <c r="S27" s="8">
-        <v>5.023333333333333</v>
+        <v>5.0233333333333334</v>
       </c>
       <c r="T27" s="8">
         <v>17.266666666666666</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="19.5">
+    <row r="28" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
         <v>54</v>
       </c>
       <c r="B28" s="8">
-        <v>93.08333333333333</v>
+        <v>93.083333333333329</v>
       </c>
       <c r="C28" s="8">
         <v>12.833333333333334</v>
       </c>
       <c r="D28" s="8">
-        <v>6.025000000000001</v>
+        <v>6.0250000000000012</v>
       </c>
       <c r="E28" s="8">
         <v>6.083333333333333</v>
@@ -2309,7 +2355,7 @@
         <v>13.166666666666666</v>
       </c>
       <c r="H28" s="8">
-        <v>6.146081696081697</v>
+        <v>6.1460816960816969</v>
       </c>
       <c r="I28" s="8">
         <v>59.583333333333336</v>
@@ -2318,13 +2364,13 @@
         <v>13.855553806444584</v>
       </c>
       <c r="K28" s="8">
-        <v>37.93125</v>
+        <v>37.931249999999999</v>
       </c>
       <c r="L28" s="8">
-        <v>8.220833333333333</v>
+        <v>8.2208333333333332</v>
       </c>
       <c r="M28" s="8">
-        <v>5.066666666666667</v>
+        <v>5.0666666666666673</v>
       </c>
       <c r="N28" s="8">
         <v>2.6166666666666667</v>
@@ -2342,24 +2388,24 @@
         <v>5.6937500000000005</v>
       </c>
       <c r="S28" s="8">
-        <v>4.634166666666666</v>
+        <v>4.6341666666666663</v>
       </c>
       <c r="T28" s="8">
         <v>12.199999999999998</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="19.5">
+    <row r="29" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
         <v>55</v>
       </c>
       <c r="B29" s="8">
-        <v>97.91666666666667</v>
+        <v>97.916666666666671</v>
       </c>
       <c r="C29" s="8">
         <v>11.833333333333334</v>
       </c>
       <c r="D29" s="8">
-        <v>5.716666666666666</v>
+        <v>5.7166666666666659</v>
       </c>
       <c r="E29" s="8">
         <v>6.833333333333333</v>
@@ -2371,37 +2417,37 @@
         <v>12.166666666666666</v>
       </c>
       <c r="H29" s="8">
-        <v>6.400336700336701</v>
+        <v>6.4003367003367009</v>
       </c>
       <c r="I29" s="8">
         <v>39.416666666666664</v>
       </c>
       <c r="J29" s="8">
-        <v>10.78055420111122</v>
+        <v>10.780554201111221</v>
       </c>
       <c r="K29" s="8">
-        <v>41.01708333333334</v>
+        <v>41.017083333333339</v>
       </c>
       <c r="L29" s="8">
-        <v>8.594583333333334</v>
+        <v>8.5945833333333344</v>
       </c>
       <c r="M29" s="8">
-        <v>5.333749999999999</v>
+        <v>5.3337499999999993</v>
       </c>
       <c r="N29" s="8">
         <v>2.7583333333333333</v>
       </c>
       <c r="O29" s="8">
-        <v>87.66666666666667</v>
+        <v>87.666666666666671</v>
       </c>
       <c r="P29" s="8">
-        <v>8.465277100555609</v>
+        <v>8.4652771005556087</v>
       </c>
       <c r="Q29" s="8">
-        <v>6.5125</v>
+        <v>6.5125000000000002</v>
       </c>
       <c r="R29" s="8">
-        <v>5.761666666666667</v>
+        <v>5.7616666666666667</v>
       </c>
       <c r="S29" s="8">
         <v>4.876666666666666</v>
@@ -2410,18 +2456,18 @@
         <v>13.733333333333334</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="19.5">
+    <row r="30" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
         <v>56</v>
       </c>
       <c r="B30" s="8">
-        <v>85.33333333333333</v>
+        <v>85.333333333333329</v>
       </c>
       <c r="C30" s="8">
         <v>10.583333333333334</v>
       </c>
       <c r="D30" s="8">
-        <v>5.558333333333334</v>
+        <v>5.5583333333333336</v>
       </c>
       <c r="E30" s="8">
         <v>5.416666666666667</v>
@@ -2433,7 +2479,7 @@
         <v>11.166666666666666</v>
       </c>
       <c r="H30" s="8">
-        <v>6.136258417508418</v>
+        <v>6.1362584175084178</v>
       </c>
       <c r="I30" s="8">
         <v>56.833333333333336</v>
@@ -2445,13 +2491,13 @@
         <v>45.06</v>
       </c>
       <c r="L30" s="8">
-        <v>8.723333333333334</v>
+        <v>8.7233333333333345</v>
       </c>
       <c r="M30" s="8">
         <v>5.614583333333333</v>
       </c>
       <c r="N30" s="8">
-        <v>2.816666666666667</v>
+        <v>2.8166666666666669</v>
       </c>
       <c r="O30" s="8">
         <v>125.5</v>
@@ -2463,27 +2509,27 @@
         <v>7.378750000000001</v>
       </c>
       <c r="R30" s="8">
-        <v>6.256666666666667</v>
+        <v>6.2566666666666668</v>
       </c>
       <c r="S30" s="8">
-        <v>5.000416666666667</v>
+        <v>5.0004166666666672</v>
       </c>
       <c r="T30" s="8">
         <v>16.566666666666666</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="19.5">
+    <row r="31" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
         <v>57</v>
       </c>
       <c r="B31" s="8">
-        <v>95.16666666666667</v>
+        <v>95.166666666666671</v>
       </c>
       <c r="C31" s="8">
         <v>11.916666666666666</v>
       </c>
       <c r="D31" s="8">
-        <v>5.483333333333334</v>
+        <v>5.4833333333333343</v>
       </c>
       <c r="E31" s="8">
         <v>5.416666666666667</v>
@@ -2495,25 +2541,25 @@
         <v>13.333333333333334</v>
       </c>
       <c r="H31" s="8">
-        <v>5.759813566063566</v>
+        <v>5.7598135660635661</v>
       </c>
       <c r="I31" s="8">
-        <v>64.41666666666667</v>
+        <v>64.416666666666671</v>
       </c>
       <c r="J31" s="8">
-        <v>19.28416515700012</v>
+        <v>19.284165157000121</v>
       </c>
       <c r="K31" s="8">
         <v>37.752916666666664</v>
       </c>
       <c r="L31" s="8">
-        <v>8.720833333333333</v>
+        <v>8.7208333333333332</v>
       </c>
       <c r="M31" s="8">
-        <v>5.529166666666666</v>
+        <v>5.5291666666666659</v>
       </c>
       <c r="N31" s="8">
-        <v>2.425</v>
+        <v>2.4249999999999998</v>
       </c>
       <c r="O31" s="8">
         <v>122.25</v>
@@ -2522,7 +2568,7 @@
         <v>13.344443376888975</v>
       </c>
       <c r="Q31" s="8">
-        <v>7.279166666666666</v>
+        <v>7.2791666666666659</v>
       </c>
       <c r="R31" s="8">
         <v>5.84375</v>
@@ -2534,7 +2580,7 @@
         <v>14.333333333333334</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="19.5">
+    <row r="32" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
         <v>59</v>
       </c>
@@ -2545,7 +2591,7 @@
         <v>1.6666666666666667</v>
       </c>
       <c r="D32" s="8">
-        <v>0.535</v>
+        <v>0.53500000000000003</v>
       </c>
       <c r="E32" s="8">
         <v>7.833333333333333</v>
@@ -2557,7 +2603,7 @@
         <v>28.083333333333332</v>
       </c>
       <c r="H32" s="8">
-        <v>5.761577509525939</v>
+        <v>5.7615775095259387</v>
       </c>
       <c r="I32" s="8">
         <v>58.166666666666664</v>
@@ -2566,13 +2612,13 @@
         <v>26.683333333333337</v>
       </c>
       <c r="K32" s="8">
-        <v>4.181500000000001</v>
+        <v>4.1815000000000007</v>
       </c>
       <c r="L32" s="8">
         <v>1.101375</v>
       </c>
       <c r="M32" s="8">
-        <v>0.5851083333333333</v>
+        <v>0.58510833333333334</v>
       </c>
       <c r="N32" s="8">
         <v>2.4185107756852076</v>
@@ -2584,27 +2630,27 @@
         <v>18.108333333333334</v>
       </c>
       <c r="Q32" s="8">
-        <v>0.7676172008547009</v>
+        <v>0.76761720085470087</v>
       </c>
       <c r="R32" s="8">
         <v>0.49161151855390983</v>
       </c>
       <c r="S32" s="8">
-        <v>0.6162011413707066</v>
+        <v>0.61620114137070658</v>
       </c>
       <c r="T32" s="8">
         <v>16.233333333333334</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="19.5">
+    <row r="33" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
         <v>60</v>
       </c>
       <c r="B33" s="8">
-        <v>74.083</v>
+        <v>74.082999999999998</v>
       </c>
       <c r="C33" s="8">
-        <v>2.833333</v>
+        <v>2.8333330000000001</v>
       </c>
       <c r="D33" s="8">
         <v>5.35</v>
@@ -2613,28 +2659,28 @@
         <v>10.5</v>
       </c>
       <c r="F33" s="8">
-        <v>2.583333</v>
+        <v>2.5833330000000001</v>
       </c>
       <c r="G33" s="8">
         <v>20.33333</v>
       </c>
       <c r="H33" s="8">
-        <v>6.106667</v>
+        <v>6.1066669999999998</v>
       </c>
       <c r="I33" s="8">
-        <v>32.83333</v>
+        <v>32.833329999999997</v>
       </c>
       <c r="J33" s="8">
         <v>27.08333</v>
       </c>
       <c r="K33" s="8">
-        <v>39.59</v>
+        <v>39.590000000000003</v>
       </c>
       <c r="L33" s="8">
-        <v>8.13</v>
+        <v>8.1300000000000008</v>
       </c>
       <c r="M33" s="8">
-        <v>5.246667</v>
+        <v>5.2466670000000004</v>
       </c>
       <c r="N33" s="8">
         <v>2.83</v>
@@ -2646,7 +2692,7 @@
         <v>26.13</v>
       </c>
       <c r="Q33" s="8">
-        <v>6.426667</v>
+        <v>6.4266670000000001</v>
       </c>
       <c r="R33" s="8">
         <v>5.76</v>
@@ -2658,24 +2704,24 @@
         <v>14.9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="19.5">
+    <row r="34" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
         <v>61</v>
       </c>
       <c r="B34" s="8">
-        <v>57.833</v>
+        <v>57.832999999999998</v>
       </c>
       <c r="C34" s="8">
         <v>4</v>
       </c>
       <c r="D34" s="8">
-        <v>5.316667</v>
+        <v>5.3166669999999998</v>
       </c>
       <c r="E34" s="8">
         <v>7</v>
       </c>
       <c r="F34" s="8">
-        <v>3.416667</v>
+        <v>3.4166669999999999</v>
       </c>
       <c r="G34" s="8">
         <v>19.5</v>
@@ -2684,7 +2730,7 @@
         <v>5.04</v>
       </c>
       <c r="I34" s="8">
-        <v>39.58333</v>
+        <v>39.583329999999997</v>
       </c>
       <c r="J34" s="8">
         <v>21.445</v>
@@ -2696,42 +2742,42 @@
         <v>10.733333</v>
       </c>
       <c r="M34" s="8">
-        <v>6.283333</v>
+        <v>6.2833329999999998</v>
       </c>
       <c r="N34" s="8">
-        <v>2.263333</v>
+        <v>2.2633329999999998</v>
       </c>
       <c r="O34" s="8">
-        <v>70.66667</v>
+        <v>70.666669999999996</v>
       </c>
       <c r="P34" s="8">
         <v>27.21</v>
       </c>
       <c r="Q34" s="8">
-        <v>8.686667</v>
+        <v>8.6866669999999999</v>
       </c>
       <c r="R34" s="8">
-        <v>6.953333</v>
+        <v>6.9533329999999998</v>
       </c>
       <c r="S34" s="8">
-        <v>5.583333</v>
+        <v>5.5833329999999997</v>
       </c>
       <c r="T34" s="8">
         <v>22.37</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="19.5">
+    <row r="35" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
         <v>46</v>
       </c>
       <c r="B35" s="8">
-        <v>92.16666666666667</v>
+        <v>92.166666666666671</v>
       </c>
       <c r="C35" s="8">
         <v>12.25</v>
       </c>
       <c r="D35" s="8">
-        <v>6.241666666666667</v>
+        <v>6.2416666666666671</v>
       </c>
       <c r="E35" s="8">
         <v>9.75</v>
@@ -2743,13 +2789,13 @@
         <v>14.25</v>
       </c>
       <c r="H35" s="8">
-        <v>4.830540293040293</v>
+        <v>4.8305402930402934</v>
       </c>
       <c r="I35" s="8">
-        <v>81.33333333333333</v>
+        <v>81.333333333333329</v>
       </c>
       <c r="J35" s="8">
-        <v>17.98333131066683</v>
+        <v>17.983331310666831</v>
       </c>
       <c r="K35" s="8">
         <v>33.696666666666665</v>
@@ -2758,10 +2804,10 @@
         <v>7.496666666666667</v>
       </c>
       <c r="M35" s="8">
-        <v>4.962916666666666</v>
+        <v>4.9629166666666658</v>
       </c>
       <c r="N35" s="8">
-        <v>2.325</v>
+        <v>2.3250000000000002</v>
       </c>
       <c r="O35" s="8">
         <v>156.66666666666666</v>
@@ -2773,16 +2819,16 @@
         <v>6.4575000000000005</v>
       </c>
       <c r="R35" s="8">
-        <v>5.2625</v>
+        <v>5.2625000000000002</v>
       </c>
       <c r="S35" s="8">
-        <v>4.168333333333334</v>
+        <v>4.1683333333333339</v>
       </c>
       <c r="T35" s="8">
-        <v>9.733333333333334</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="19.5">
+        <v>9.7333333333333343</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
         <v>47</v>
       </c>
@@ -2793,7 +2839,7 @@
         <v>12.166666666666666</v>
       </c>
       <c r="D36" s="8">
-        <v>5.983333333333333</v>
+        <v>5.9833333333333334</v>
       </c>
       <c r="E36" s="8">
         <v>7.666666666666667</v>
@@ -2805,7 +2851,7 @@
         <v>12</v>
       </c>
       <c r="H36" s="8">
-        <v>5.567939005439006</v>
+        <v>5.5679390054390057</v>
       </c>
       <c r="I36" s="8">
         <v>54.333333333333336</v>
@@ -2814,13 +2860,13 @@
         <v>16.113886883777937</v>
       </c>
       <c r="K36" s="8">
-        <v>42.1625</v>
+        <v>42.162500000000001</v>
       </c>
       <c r="L36" s="8">
-        <v>8.979166666666666</v>
+        <v>8.9791666666666661</v>
       </c>
       <c r="M36" s="8">
-        <v>5.650000000000001</v>
+        <v>5.6500000000000012</v>
       </c>
       <c r="N36" s="8">
         <v>2.8000000000000003</v>
@@ -2832,30 +2878,30 @@
         <v>12.531943441888968</v>
       </c>
       <c r="Q36" s="8">
-        <v>7.327500000000001</v>
+        <v>7.3275000000000006</v>
       </c>
       <c r="R36" s="8">
-        <v>6.076666666666667</v>
+        <v>6.0766666666666671</v>
       </c>
       <c r="S36" s="8">
-        <v>4.725833333333333</v>
+        <v>4.7258333333333331</v>
       </c>
       <c r="T36" s="8">
         <v>15.733333333333334</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="19.5">
+    <row r="37" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="s">
         <v>23</v>
       </c>
       <c r="B37" s="8">
-        <v>78.08333333333333</v>
+        <v>78.083333333333329</v>
       </c>
       <c r="C37" s="8">
         <v>2.5</v>
       </c>
       <c r="D37" s="8">
-        <v>0.5716666666666667</v>
+        <v>0.57166666666666666</v>
       </c>
       <c r="E37" s="8">
         <v>7.333333333333333</v>
@@ -2867,7 +2913,7 @@
         <v>25.833333333333332</v>
       </c>
       <c r="H37" s="8">
-        <v>7.056060880536308</v>
+        <v>7.0560608805363083</v>
       </c>
       <c r="I37" s="8">
         <v>40.416666666666664</v>
@@ -2876,7 +2922,7 @@
         <v>20.791666666666664</v>
       </c>
       <c r="K37" s="8">
-        <v>4.410833333333333</v>
+        <v>4.4108333333333327</v>
       </c>
       <c r="L37" s="8">
         <v>1.0041666666666667</v>
@@ -2888,19 +2934,19 @@
         <v>2.6371570092925007</v>
       </c>
       <c r="O37" s="8">
-        <v>82.58333333333333</v>
+        <v>82.583333333333329</v>
       </c>
       <c r="P37" s="8">
         <v>13.791666666666666</v>
       </c>
       <c r="Q37" s="8">
-        <v>0.7577067307692307</v>
+        <v>0.75770673076923067</v>
       </c>
       <c r="R37" s="8">
-        <v>0.5168387627486891</v>
+        <v>0.51683876274868912</v>
       </c>
       <c r="S37" s="8">
-        <v>0.5840496597356892</v>
+        <v>0.58404965973568923</v>
       </c>
       <c r="T37" s="8">
         <v>15.333333333333334</v>
@@ -2912,7 +2958,2316 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE01356C-0DBF-459C-8FC0-DBA132C3FC9D}">
+  <dimension ref="A1:T37"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="Q6" sqref="Q6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="M1" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="N1" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="O1" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="P1" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q1" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="R1" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="S1" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="T1" s="8" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="8">
+        <v>87.625</v>
+      </c>
+      <c r="C2" s="8">
+        <v>0.75</v>
+      </c>
+      <c r="D2" s="8">
+        <v>0.54333333333333333</v>
+      </c>
+      <c r="E2" s="8">
+        <v>6.333333333333333</v>
+      </c>
+      <c r="F2" s="8">
+        <v>4</v>
+      </c>
+      <c r="G2" s="8">
+        <v>23.916666666666668</v>
+      </c>
+      <c r="H2" s="8">
+        <v>6.10018376049279</v>
+      </c>
+      <c r="I2" s="8">
+        <v>61.416666666666664</v>
+      </c>
+      <c r="J2" s="8">
+        <v>23.783333333333331</v>
+      </c>
+      <c r="K2" s="8">
+        <v>3.5779166666666669</v>
+      </c>
+      <c r="L2" s="8">
+        <v>0.92708333333333337</v>
+      </c>
+      <c r="M2" s="8">
+        <v>0.56516666666666671</v>
+      </c>
+      <c r="N2" s="8">
+        <v>2.276757721225056</v>
+      </c>
+      <c r="O2" s="8">
+        <v>117.25</v>
+      </c>
+      <c r="P2" s="8">
+        <v>14.866666666666667</v>
+      </c>
+      <c r="Q2" s="8">
+        <v>0.70500755536733806</v>
+      </c>
+      <c r="R2" s="8">
+        <v>0.46366790057768315</v>
+      </c>
+      <c r="S2" s="8">
+        <v>0.56781066306881522</v>
+      </c>
+      <c r="T2" s="8">
+        <v>13.466666666666669</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="8">
+        <v>76.291666666666671</v>
+      </c>
+      <c r="C3" s="8">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D3" s="8">
+        <v>0.52333333333333332</v>
+      </c>
+      <c r="E3" s="8">
+        <v>6.333333333333333</v>
+      </c>
+      <c r="F3" s="8">
+        <v>3.5833333333333335</v>
+      </c>
+      <c r="G3" s="8">
+        <v>24</v>
+      </c>
+      <c r="H3" s="8">
+        <v>5.6019778934233555</v>
+      </c>
+      <c r="I3" s="8">
+        <v>56.916666666666664</v>
+      </c>
+      <c r="J3" s="8">
+        <v>18.599999999999998</v>
+      </c>
+      <c r="K3" s="8">
+        <v>3.5</v>
+      </c>
+      <c r="L3" s="8">
+        <v>0.87625000000000008</v>
+      </c>
+      <c r="M3" s="8">
+        <v>0.53666666666666663</v>
+      </c>
+      <c r="N3" s="8">
+        <v>2.5035951554797244</v>
+      </c>
+      <c r="O3" s="8">
+        <v>113.41666666666667</v>
+      </c>
+      <c r="P3" s="8">
+        <v>11.883333333333333</v>
+      </c>
+      <c r="Q3" s="8">
+        <v>0.65372968933950393</v>
+      </c>
+      <c r="R3" s="8">
+        <v>0.44254906072425254</v>
+      </c>
+      <c r="S3" s="8">
+        <v>0.54465819662127213</v>
+      </c>
+      <c r="T3" s="8">
+        <v>10.366666666666667</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="8">
+        <v>75.791666666666671</v>
+      </c>
+      <c r="C4" s="8">
+        <v>1.0833333333333333</v>
+      </c>
+      <c r="D4" s="8">
+        <v>0.50749999999999995</v>
+      </c>
+      <c r="E4" s="8">
+        <v>4.833333333333333</v>
+      </c>
+      <c r="F4" s="8">
+        <v>2.75</v>
+      </c>
+      <c r="G4" s="8">
+        <v>18.833333333333332</v>
+      </c>
+      <c r="H4" s="8">
+        <v>6.3064715965722158</v>
+      </c>
+      <c r="I4" s="8">
+        <v>34.583333333333336</v>
+      </c>
+      <c r="J4" s="8">
+        <v>18.533333333333335</v>
+      </c>
+      <c r="K4" s="8">
+        <v>4.6804166666666669</v>
+      </c>
+      <c r="L4" s="8">
+        <v>0.99791666666666679</v>
+      </c>
+      <c r="M4" s="8">
+        <v>0.55266666666666675</v>
+      </c>
+      <c r="N4" s="8">
+        <v>2.9943023939727005</v>
+      </c>
+      <c r="O4" s="8">
+        <v>94</v>
+      </c>
+      <c r="P4" s="8">
+        <v>12.108333333333333</v>
+      </c>
+      <c r="Q4" s="8">
+        <v>0.68647593546300445</v>
+      </c>
+      <c r="R4" s="8">
+        <v>0.46911858554849561</v>
+      </c>
+      <c r="S4" s="8">
+        <v>0.57658258829545117</v>
+      </c>
+      <c r="T4" s="8">
+        <v>13.1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="8">
+        <v>72.458333333333329</v>
+      </c>
+      <c r="C5" s="8">
+        <v>4.25</v>
+      </c>
+      <c r="D5" s="8">
+        <v>0.53166666666666662</v>
+      </c>
+      <c r="E5" s="8">
+        <v>9.4166666666666661</v>
+      </c>
+      <c r="F5" s="8">
+        <v>4.333333333333333</v>
+      </c>
+      <c r="G5" s="8">
+        <v>27.916666666666668</v>
+      </c>
+      <c r="H5" s="8">
+        <v>6.0786467162735276</v>
+      </c>
+      <c r="I5" s="8">
+        <v>71.25</v>
+      </c>
+      <c r="J5" s="8">
+        <v>20.75</v>
+      </c>
+      <c r="K5" s="8">
+        <v>3.4170833333333328</v>
+      </c>
+      <c r="L5" s="8">
+        <v>0.97083333333333321</v>
+      </c>
+      <c r="M5" s="8">
+        <v>0.54816666666666658</v>
+      </c>
+      <c r="N5" s="8">
+        <v>2.1986452934723224</v>
+      </c>
+      <c r="O5" s="8">
+        <v>132.75</v>
+      </c>
+      <c r="P5" s="8">
+        <v>15.591666666666667</v>
+      </c>
+      <c r="Q5" s="8">
+        <v>0.62599324286824287</v>
+      </c>
+      <c r="R5" s="8">
+        <v>0.46923461381613557</v>
+      </c>
+      <c r="S5" s="8">
+        <v>0.55712146877545432</v>
+      </c>
+      <c r="T5" s="8">
+        <v>12.166666666666666</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="8">
+        <v>83.166666666666671</v>
+      </c>
+      <c r="C6" s="8">
+        <v>3.6666666666666665</v>
+      </c>
+      <c r="D6" s="8">
+        <v>0.54666666666666652</v>
+      </c>
+      <c r="E6" s="8">
+        <v>7.666666666666667</v>
+      </c>
+      <c r="F6" s="8">
+        <v>4.25</v>
+      </c>
+      <c r="G6" s="8">
+        <v>25.416666666666668</v>
+      </c>
+      <c r="H6" s="8">
+        <v>6.5702416512279038</v>
+      </c>
+      <c r="I6" s="8">
+        <v>53.75</v>
+      </c>
+      <c r="J6" s="8">
+        <v>21.024999999999999</v>
+      </c>
+      <c r="K6" s="8">
+        <v>3.6374999999999997</v>
+      </c>
+      <c r="L6" s="8">
+        <v>0.96666666666666667</v>
+      </c>
+      <c r="M6" s="8">
+        <v>0.55408333333333337</v>
+      </c>
+      <c r="N6" s="8">
+        <v>2.3024316176948152</v>
+      </c>
+      <c r="O6" s="8">
+        <v>98.5</v>
+      </c>
+      <c r="P6" s="8">
+        <v>13.008333333333335</v>
+      </c>
+      <c r="Q6" s="8">
+        <v>0.7426959282263631</v>
+      </c>
+      <c r="R6" s="8">
+        <v>0.46541355323420541</v>
+      </c>
+      <c r="S6" s="8">
+        <v>0.57581380105401847</v>
+      </c>
+      <c r="T6" s="8">
+        <v>13.666666666666666</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="8">
+        <v>82.125</v>
+      </c>
+      <c r="C7" s="8">
+        <v>2.9166666666666665</v>
+      </c>
+      <c r="D7" s="8">
+        <v>0.57499999999999984</v>
+      </c>
+      <c r="E7" s="8">
+        <v>8.8333333333333339</v>
+      </c>
+      <c r="F7" s="8">
+        <v>4.333333333333333</v>
+      </c>
+      <c r="G7" s="8">
+        <v>23.666666666666668</v>
+      </c>
+      <c r="H7" s="8">
+        <v>7.1693366114561767</v>
+      </c>
+      <c r="I7" s="8">
+        <v>49.5</v>
+      </c>
+      <c r="J7" s="8">
+        <v>17.000000000000004</v>
+      </c>
+      <c r="K7" s="8">
+        <v>3.5487499999999996</v>
+      </c>
+      <c r="L7" s="8">
+        <v>0.99833333333333318</v>
+      </c>
+      <c r="M7" s="8">
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="N7" s="8">
+        <v>2.2957707185456182</v>
+      </c>
+      <c r="O7" s="8">
+        <v>89.1666666666667</v>
+      </c>
+      <c r="P7" s="8">
+        <v>10.9</v>
+      </c>
+      <c r="Q7" s="8">
+        <v>0.66274908058188942</v>
+      </c>
+      <c r="R7" s="8">
+        <v>0.45730988567433073</v>
+      </c>
+      <c r="S7" s="8">
+        <v>0.57316667673795829</v>
+      </c>
+      <c r="T7" s="8">
+        <v>11.233333333333334</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" s="8">
+        <v>78.5</v>
+      </c>
+      <c r="C8" s="8">
+        <v>1.9166666666666667</v>
+      </c>
+      <c r="D8" s="8">
+        <v>0.45750000000000002</v>
+      </c>
+      <c r="E8" s="8">
+        <v>7.083333333333333</v>
+      </c>
+      <c r="F8" s="8">
+        <v>2.3333333333333335</v>
+      </c>
+      <c r="G8" s="8">
+        <v>20.833333333333332</v>
+      </c>
+      <c r="H8" s="8">
+        <v>5.207098662789452</v>
+      </c>
+      <c r="I8" s="8">
+        <v>40.75</v>
+      </c>
+      <c r="J8" s="8">
+        <v>15.908333333333337</v>
+      </c>
+      <c r="K8" s="8">
+        <v>4.0587499999999999</v>
+      </c>
+      <c r="L8" s="8">
+        <v>1.0254999999999999</v>
+      </c>
+      <c r="M8" s="8">
+        <v>0.59258333333333335</v>
+      </c>
+      <c r="N8" s="8">
+        <v>2.9125539595669419</v>
+      </c>
+      <c r="O8" s="8">
+        <v>84.166666666666671</v>
+      </c>
+      <c r="P8" s="8">
+        <v>9.5249999999999986</v>
+      </c>
+      <c r="Q8" s="8">
+        <v>0.66990339548437461</v>
+      </c>
+      <c r="R8" s="8">
+        <v>0.52697026888803211</v>
+      </c>
+      <c r="S8" s="8">
+        <v>0.57720618748511554</v>
+      </c>
+      <c r="T8" s="8">
+        <v>13.299999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" s="8">
+        <v>82.25</v>
+      </c>
+      <c r="C9" s="8">
+        <v>1.1666666666666667</v>
+      </c>
+      <c r="D9" s="8">
+        <v>0.56250000000000011</v>
+      </c>
+      <c r="E9" s="8">
+        <v>7.75</v>
+      </c>
+      <c r="F9" s="8">
+        <v>3.8333333333333335</v>
+      </c>
+      <c r="G9" s="8">
+        <v>22.5</v>
+      </c>
+      <c r="H9" s="8">
+        <v>6.81710428014597</v>
+      </c>
+      <c r="I9" s="8">
+        <v>46.666666666666664</v>
+      </c>
+      <c r="J9" s="8">
+        <v>19.599999999999998</v>
+      </c>
+      <c r="K9" s="8">
+        <v>4.0004166666666663</v>
+      </c>
+      <c r="L9" s="8">
+        <v>1.2029166666666666</v>
+      </c>
+      <c r="M9" s="8">
+        <v>0.53983333333333328</v>
+      </c>
+      <c r="N9" s="8">
+        <v>2.5442845776894605</v>
+      </c>
+      <c r="O9" s="8">
+        <v>90.75</v>
+      </c>
+      <c r="P9" s="8">
+        <v>12.5</v>
+      </c>
+      <c r="Q9" s="8">
+        <v>0.73012928704645341</v>
+      </c>
+      <c r="R9" s="8">
+        <v>0.47189171549548242</v>
+      </c>
+      <c r="S9" s="8">
+        <v>0.58868703256897292</v>
+      </c>
+      <c r="T9" s="8">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" s="8">
+        <v>90.375</v>
+      </c>
+      <c r="C10" s="8">
+        <v>1.8333333333333333</v>
+      </c>
+      <c r="D10" s="8">
+        <v>0.54500000000000004</v>
+      </c>
+      <c r="E10" s="8">
+        <v>6.916666666666667</v>
+      </c>
+      <c r="F10" s="8">
+        <v>3.9166666666666665</v>
+      </c>
+      <c r="G10" s="8">
+        <v>26.416666666666668</v>
+      </c>
+      <c r="H10" s="8">
+        <v>6.1989495095296059</v>
+      </c>
+      <c r="I10" s="8">
+        <v>62.916666666666664</v>
+      </c>
+      <c r="J10" s="8">
+        <v>23.341666666666669</v>
+      </c>
+      <c r="K10" s="8">
+        <v>3.4983333333333335</v>
+      </c>
+      <c r="L10" s="8">
+        <v>0.91999999999999993</v>
+      </c>
+      <c r="M10" s="8">
+        <v>0.57674999999999998</v>
+      </c>
+      <c r="N10" s="8">
+        <v>2.2780304890376972</v>
+      </c>
+      <c r="O10" s="8">
+        <v>117.16666666666667</v>
+      </c>
+      <c r="P10" s="8">
+        <v>15.758333333333335</v>
+      </c>
+      <c r="Q10" s="8">
+        <v>0.71179109338728896</v>
+      </c>
+      <c r="R10" s="8">
+        <v>0.48682714568040647</v>
+      </c>
+      <c r="S10" s="8">
+        <v>0.56861897965158825</v>
+      </c>
+      <c r="T10" s="8">
+        <v>13.366666666666667</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" s="8">
+        <v>56</v>
+      </c>
+      <c r="C11" s="8">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="D11" s="8">
+        <v>0.58333333333333326</v>
+      </c>
+      <c r="E11" s="8">
+        <v>5.333333333333333</v>
+      </c>
+      <c r="F11" s="8">
+        <v>3.75</v>
+      </c>
+      <c r="G11" s="8">
+        <v>25.75</v>
+      </c>
+      <c r="H11" s="8">
+        <v>5.2623113723603927</v>
+      </c>
+      <c r="I11" s="8">
+        <v>38.416666666666664</v>
+      </c>
+      <c r="J11" s="8">
+        <v>17.974999999999998</v>
+      </c>
+      <c r="K11" s="8">
+        <v>4.1391666666666671</v>
+      </c>
+      <c r="L11" s="8">
+        <v>0.98499999999999999</v>
+      </c>
+      <c r="M11" s="8">
+        <v>0.59100000000000008</v>
+      </c>
+      <c r="N11" s="8">
+        <v>2.3642115085786992</v>
+      </c>
+      <c r="O11" s="8">
+        <v>89.166666666666671</v>
+      </c>
+      <c r="P11" s="8">
+        <v>11.958333333333334</v>
+      </c>
+      <c r="Q11" s="8">
+        <v>0.65244407814407823</v>
+      </c>
+      <c r="R11" s="8">
+        <v>0.49859821784149744</v>
+      </c>
+      <c r="S11" s="8">
+        <v>0.59709679348835054</v>
+      </c>
+      <c r="T11" s="8">
+        <v>13.799999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" s="8">
+        <v>88.667000000000002</v>
+      </c>
+      <c r="C12" s="8">
+        <v>1.75</v>
+      </c>
+      <c r="D12" s="8">
+        <v>5.9</v>
+      </c>
+      <c r="E12" s="8">
+        <v>10.08</v>
+      </c>
+      <c r="F12" s="8">
+        <v>2.9166669999999999</v>
+      </c>
+      <c r="G12" s="8">
+        <v>21</v>
+      </c>
+      <c r="H12" s="8">
+        <v>5.9233330000000004</v>
+      </c>
+      <c r="I12" s="8">
+        <v>40.166670000000003</v>
+      </c>
+      <c r="J12" s="8">
+        <v>24.33333</v>
+      </c>
+      <c r="K12" s="8">
+        <v>40.98</v>
+      </c>
+      <c r="L12" s="8">
+        <v>8.8833330000000004</v>
+      </c>
+      <c r="M12" s="8">
+        <v>5.6233329999999997</v>
+      </c>
+      <c r="N12" s="8">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="O12" s="8">
+        <v>89.083330000000004</v>
+      </c>
+      <c r="P12" s="8">
+        <v>25.08</v>
+      </c>
+      <c r="Q12" s="8">
+        <v>7.1733330000000004</v>
+      </c>
+      <c r="R12" s="8">
+        <v>5.8733329999999997</v>
+      </c>
+      <c r="S12" s="8">
+        <v>4.6733330000000004</v>
+      </c>
+      <c r="T12" s="8">
+        <v>13.706670000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" s="8">
+        <v>77.832999999999998</v>
+      </c>
+      <c r="C13" s="8">
+        <v>1</v>
+      </c>
+      <c r="D13" s="8">
+        <v>5.4249999999999998</v>
+      </c>
+      <c r="E13" s="8">
+        <v>10.33</v>
+      </c>
+      <c r="F13" s="8">
+        <v>4.25</v>
+      </c>
+      <c r="G13" s="8">
+        <v>29.08333</v>
+      </c>
+      <c r="H13" s="8">
+        <v>5.9066669999999997</v>
+      </c>
+      <c r="I13" s="8">
+        <v>66.75</v>
+      </c>
+      <c r="J13" s="8">
+        <v>22.633330000000001</v>
+      </c>
+      <c r="K13" s="8">
+        <v>34.556669999999997</v>
+      </c>
+      <c r="L13" s="8">
+        <v>8.1366669999999992</v>
+      </c>
+      <c r="M13" s="8">
+        <v>4.72</v>
+      </c>
+      <c r="N13" s="8">
+        <v>2.326667</v>
+      </c>
+      <c r="O13" s="8">
+        <v>129.71666999999999</v>
+      </c>
+      <c r="P13" s="8">
+        <v>27.58</v>
+      </c>
+      <c r="Q13" s="8">
+        <v>6.47</v>
+      </c>
+      <c r="R13" s="8">
+        <v>5.03</v>
+      </c>
+      <c r="S13" s="8">
+        <v>4.29</v>
+      </c>
+      <c r="T13" s="8">
+        <v>10.38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14" s="8">
+        <v>60.75</v>
+      </c>
+      <c r="C14" s="8">
+        <v>1.5833330000000001</v>
+      </c>
+      <c r="D14" s="8">
+        <v>5.0666669999999998</v>
+      </c>
+      <c r="E14" s="8">
+        <v>6.16</v>
+      </c>
+      <c r="F14" s="8">
+        <v>3.1666669999999999</v>
+      </c>
+      <c r="G14" s="8">
+        <v>20.16667</v>
+      </c>
+      <c r="H14" s="8">
+        <v>6.4066669999999997</v>
+      </c>
+      <c r="I14" s="8">
+        <v>37.666670000000003</v>
+      </c>
+      <c r="J14" s="8">
+        <v>25.34</v>
+      </c>
+      <c r="K14" s="8">
+        <v>45.32667</v>
+      </c>
+      <c r="L14" s="8">
+        <v>10.063333</v>
+      </c>
+      <c r="M14" s="8">
+        <v>5.8666669999999996</v>
+      </c>
+      <c r="N14" s="8">
+        <v>2.5266670000000002</v>
+      </c>
+      <c r="O14" s="8">
+        <v>98.833330000000004</v>
+      </c>
+      <c r="P14" s="8">
+        <v>31.32</v>
+      </c>
+      <c r="Q14" s="8">
+        <v>7.68</v>
+      </c>
+      <c r="R14" s="8">
+        <v>6.693333</v>
+      </c>
+      <c r="S14" s="8">
+        <v>5.5433329999999996</v>
+      </c>
+      <c r="T14" s="8">
+        <v>18.663329999999998</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" s="8">
+        <v>89.082999999999998</v>
+      </c>
+      <c r="C15" s="8">
+        <v>2.25</v>
+      </c>
+      <c r="D15" s="8">
+        <v>6.1749999999999998</v>
+      </c>
+      <c r="E15" s="8">
+        <v>10.5</v>
+      </c>
+      <c r="F15" s="8">
+        <v>4.5666669999999998</v>
+      </c>
+      <c r="G15" s="8">
+        <v>23.08333</v>
+      </c>
+      <c r="H15" s="8">
+        <v>4.9533329999999998</v>
+      </c>
+      <c r="I15" s="8">
+        <v>51.25</v>
+      </c>
+      <c r="J15" s="8">
+        <v>45.583329999999997</v>
+      </c>
+      <c r="K15" s="8">
+        <v>47.456670000000003</v>
+      </c>
+      <c r="L15" s="8">
+        <v>9.6233330000000006</v>
+      </c>
+      <c r="M15" s="8">
+        <v>6.5833329999999997</v>
+      </c>
+      <c r="N15" s="8">
+        <v>2.3666670000000001</v>
+      </c>
+      <c r="O15" s="8">
+        <v>132.42332999999999</v>
+      </c>
+      <c r="P15" s="8">
+        <v>20.5</v>
+      </c>
+      <c r="Q15" s="8">
+        <v>8.2733329999999992</v>
+      </c>
+      <c r="R15" s="8">
+        <v>6.6266670000000003</v>
+      </c>
+      <c r="S15" s="8">
+        <v>5.53</v>
+      </c>
+      <c r="T15" s="8">
+        <v>21.16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B16" s="8">
+        <v>68.582999999999998</v>
+      </c>
+      <c r="C16" s="8">
+        <v>2.4166669999999999</v>
+      </c>
+      <c r="D16" s="8">
+        <v>4.8416670000000002</v>
+      </c>
+      <c r="E16" s="8">
+        <v>14.25</v>
+      </c>
+      <c r="F16" s="8">
+        <v>4.25</v>
+      </c>
+      <c r="G16" s="8">
+        <v>28.33333</v>
+      </c>
+      <c r="H16" s="8">
+        <v>6.8033330000000003</v>
+      </c>
+      <c r="I16" s="8">
+        <v>74.083330000000004</v>
+      </c>
+      <c r="J16" s="8">
+        <v>22.613330000000001</v>
+      </c>
+      <c r="K16" s="8">
+        <v>35.35333</v>
+      </c>
+      <c r="L16" s="8">
+        <v>7.8966669999999999</v>
+      </c>
+      <c r="M16" s="8">
+        <v>5.6033330000000001</v>
+      </c>
+      <c r="N16" s="8">
+        <v>2.3766669999999999</v>
+      </c>
+      <c r="O16" s="8">
+        <v>138.41667000000001</v>
+      </c>
+      <c r="P16" s="8">
+        <v>38.19</v>
+      </c>
+      <c r="Q16" s="8">
+        <v>6.766667</v>
+      </c>
+      <c r="R16" s="8">
+        <v>5.5533330000000003</v>
+      </c>
+      <c r="S16" s="8">
+        <v>4.6733330000000004</v>
+      </c>
+      <c r="T16" s="8">
+        <v>12.35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B17" s="8">
+        <v>65.917000000000002</v>
+      </c>
+      <c r="C17" s="8">
+        <v>2.9166669999999999</v>
+      </c>
+      <c r="D17" s="8">
+        <v>5.233333</v>
+      </c>
+      <c r="E17" s="8">
+        <v>9.75</v>
+      </c>
+      <c r="F17" s="8">
+        <v>4.5</v>
+      </c>
+      <c r="G17" s="8">
+        <v>25.25</v>
+      </c>
+      <c r="H17" s="8">
+        <v>7.0933330000000003</v>
+      </c>
+      <c r="I17" s="8">
+        <v>49.833329999999997</v>
+      </c>
+      <c r="J17" s="8">
+        <v>23.973330000000001</v>
+      </c>
+      <c r="K17" s="8">
+        <v>50.533329999999999</v>
+      </c>
+      <c r="L17" s="8">
+        <v>9.266667</v>
+      </c>
+      <c r="M17" s="8">
+        <v>6.13</v>
+      </c>
+      <c r="N17" s="8">
+        <v>2.6566670000000001</v>
+      </c>
+      <c r="O17" s="8">
+        <v>124.5</v>
+      </c>
+      <c r="P17" s="8">
+        <v>32.32</v>
+      </c>
+      <c r="Q17" s="8">
+        <v>7.85</v>
+      </c>
+      <c r="R17" s="8">
+        <v>6.2466670000000004</v>
+      </c>
+      <c r="S17" s="8">
+        <v>4.766667</v>
+      </c>
+      <c r="T17" s="8">
+        <v>17.463329999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B18" s="8">
+        <v>74</v>
+      </c>
+      <c r="C18" s="8">
+        <v>3.05</v>
+      </c>
+      <c r="D18" s="8">
+        <v>6.141667</v>
+      </c>
+      <c r="E18" s="8">
+        <v>12.75</v>
+      </c>
+      <c r="F18" s="8">
+        <v>3.5833330000000001</v>
+      </c>
+      <c r="G18" s="8">
+        <v>23.08333</v>
+      </c>
+      <c r="H18" s="8">
+        <v>5.5266669999999998</v>
+      </c>
+      <c r="I18" s="8">
+        <v>37.75</v>
+      </c>
+      <c r="J18" s="8">
+        <v>24.16667</v>
+      </c>
+      <c r="K18" s="8">
+        <v>37.866669999999999</v>
+      </c>
+      <c r="L18" s="8">
+        <v>7.2933329999999996</v>
+      </c>
+      <c r="M18" s="8">
+        <v>4.5866670000000003</v>
+      </c>
+      <c r="N18" s="8">
+        <v>2.693333</v>
+      </c>
+      <c r="O18" s="8">
+        <v>83.133330000000001</v>
+      </c>
+      <c r="P18" s="8">
+        <v>15.17</v>
+      </c>
+      <c r="Q18" s="8">
+        <v>6.5066670000000002</v>
+      </c>
+      <c r="R18" s="8">
+        <v>5.1166669999999996</v>
+      </c>
+      <c r="S18" s="8">
+        <v>4.3633329999999999</v>
+      </c>
+      <c r="T18" s="8">
+        <v>13.303330000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A19" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B19" s="8">
+        <v>81.417000000000002</v>
+      </c>
+      <c r="C19" s="8">
+        <v>2.75</v>
+      </c>
+      <c r="D19" s="8">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="E19" s="8">
+        <v>7.08</v>
+      </c>
+      <c r="F19" s="8">
+        <v>2.1666669999999999</v>
+      </c>
+      <c r="G19" s="8">
+        <v>18.41667</v>
+      </c>
+      <c r="H19" s="8">
+        <v>5.4233330000000004</v>
+      </c>
+      <c r="I19" s="8">
+        <v>32.833329999999997</v>
+      </c>
+      <c r="J19" s="8">
+        <v>24.26</v>
+      </c>
+      <c r="K19" s="8">
+        <v>46.556669999999997</v>
+      </c>
+      <c r="L19" s="8">
+        <v>9.18</v>
+      </c>
+      <c r="M19" s="8">
+        <v>6.1133329999999999</v>
+      </c>
+      <c r="N19" s="8">
+        <v>3.01</v>
+      </c>
+      <c r="O19" s="8">
+        <v>85.75</v>
+      </c>
+      <c r="P19" s="8">
+        <v>30.06</v>
+      </c>
+      <c r="Q19" s="8">
+        <v>7.3433330000000003</v>
+      </c>
+      <c r="R19" s="8">
+        <v>6.2233330000000002</v>
+      </c>
+      <c r="S19" s="8">
+        <v>5.2833329999999998</v>
+      </c>
+      <c r="T19" s="8">
+        <v>17.473330000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A20" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B20" s="8">
+        <v>75.332999999999998</v>
+      </c>
+      <c r="C20" s="8">
+        <v>3.1666669999999999</v>
+      </c>
+      <c r="D20" s="8">
+        <v>6.1749999999999998</v>
+      </c>
+      <c r="E20" s="8">
+        <v>10.58</v>
+      </c>
+      <c r="F20" s="8">
+        <v>4.6666670000000003</v>
+      </c>
+      <c r="G20" s="8">
+        <v>23.91667</v>
+      </c>
+      <c r="H20" s="8">
+        <v>6.41</v>
+      </c>
+      <c r="I20" s="8">
+        <v>51.666670000000003</v>
+      </c>
+      <c r="J20" s="8">
+        <v>19.079999999999998</v>
+      </c>
+      <c r="K20" s="8">
+        <v>44.046669999999999</v>
+      </c>
+      <c r="L20" s="8">
+        <v>9.1766670000000001</v>
+      </c>
+      <c r="M20" s="8">
+        <v>4.8633329999999999</v>
+      </c>
+      <c r="N20" s="8">
+        <v>2.76</v>
+      </c>
+      <c r="O20" s="8">
+        <v>99.496669999999995</v>
+      </c>
+      <c r="P20" s="8">
+        <v>35.21</v>
+      </c>
+      <c r="Q20" s="8">
+        <v>7.2566670000000002</v>
+      </c>
+      <c r="R20" s="8">
+        <v>5.8533330000000001</v>
+      </c>
+      <c r="S20" s="8">
+        <v>4.5133330000000003</v>
+      </c>
+      <c r="T20" s="8">
+        <v>14.546670000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A21" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B21" s="8">
+        <v>76.582999999999998</v>
+      </c>
+      <c r="C21" s="8">
+        <v>1</v>
+      </c>
+      <c r="D21" s="8">
+        <v>6.05</v>
+      </c>
+      <c r="E21" s="8">
+        <v>10.83</v>
+      </c>
+      <c r="F21" s="8">
+        <v>4.4166670000000003</v>
+      </c>
+      <c r="G21" s="8">
+        <v>25.08333</v>
+      </c>
+      <c r="H21" s="8">
+        <v>6.6666670000000003</v>
+      </c>
+      <c r="I21" s="8">
+        <v>68.416669999999996</v>
+      </c>
+      <c r="J21" s="8">
+        <v>25.3</v>
+      </c>
+      <c r="K21" s="8">
+        <v>41.21</v>
+      </c>
+      <c r="L21" s="8">
+        <v>8.1766670000000001</v>
+      </c>
+      <c r="M21" s="8">
+        <v>5.4066669999999997</v>
+      </c>
+      <c r="N21" s="8">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="O21" s="8">
+        <v>98.333330000000004</v>
+      </c>
+      <c r="P21" s="8">
+        <v>29.73</v>
+      </c>
+      <c r="Q21" s="8">
+        <v>6.976667</v>
+      </c>
+      <c r="R21" s="8">
+        <v>5.08</v>
+      </c>
+      <c r="S21" s="8">
+        <v>4.3</v>
+      </c>
+      <c r="T21" s="8">
+        <v>11.93</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A22" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B22" s="8">
+        <v>90.25</v>
+      </c>
+      <c r="C22" s="8">
+        <v>12.333333333333334</v>
+      </c>
+      <c r="D22" s="8">
+        <v>5.4083333333333341</v>
+      </c>
+      <c r="E22" s="8">
+        <v>4.833333333333333</v>
+      </c>
+      <c r="F22" s="8">
+        <v>3.1666666666666665</v>
+      </c>
+      <c r="G22" s="8">
+        <v>12.583333333333334</v>
+      </c>
+      <c r="H22" s="8">
+        <v>6.3414409664409659</v>
+      </c>
+      <c r="I22" s="8">
+        <v>59.333333333333336</v>
+      </c>
+      <c r="J22" s="8">
+        <v>12.944442768222354</v>
+      </c>
+      <c r="K22" s="8">
+        <v>39.197916666666664</v>
+      </c>
+      <c r="L22" s="8">
+        <v>8.5520833333333339</v>
+      </c>
+      <c r="M22" s="8">
+        <v>4.925416666666667</v>
+      </c>
+      <c r="N22" s="8">
+        <v>2.3666666666666667</v>
+      </c>
+      <c r="O22" s="8">
+        <v>119.08333333333333</v>
+      </c>
+      <c r="P22" s="8">
+        <v>10.476388050777842</v>
+      </c>
+      <c r="Q22" s="8">
+        <v>7.2875000000000005</v>
+      </c>
+      <c r="R22" s="8">
+        <v>5.7720833333333337</v>
+      </c>
+      <c r="S22" s="8">
+        <v>4.5049999999999999</v>
+      </c>
+      <c r="T22" s="8">
+        <v>12.533333333333333</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A23" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="B23" s="8">
+        <v>91</v>
+      </c>
+      <c r="C23" s="8">
+        <v>12.333333333333334</v>
+      </c>
+      <c r="D23" s="8">
+        <v>6.1749999999999998</v>
+      </c>
+      <c r="E23" s="8">
+        <v>7</v>
+      </c>
+      <c r="F23" s="8">
+        <v>4.583333333333333</v>
+      </c>
+      <c r="G23" s="8">
+        <v>21.666666666666668</v>
+      </c>
+      <c r="H23" s="8">
+        <v>6.4004144004144008</v>
+      </c>
+      <c r="I23" s="8">
+        <v>52.75</v>
+      </c>
+      <c r="J23" s="8">
+        <v>15.174998056000151</v>
+      </c>
+      <c r="K23" s="8">
+        <v>40.206250000000004</v>
+      </c>
+      <c r="L23" s="8">
+        <v>9.1970833333333335</v>
+      </c>
+      <c r="M23" s="8">
+        <v>5.166666666666667</v>
+      </c>
+      <c r="N23" s="8">
+        <v>2.4083333333333332</v>
+      </c>
+      <c r="O23" s="8">
+        <v>108.58333333333333</v>
+      </c>
+      <c r="P23" s="8">
+        <v>12.149999028000076</v>
+      </c>
+      <c r="Q23" s="8">
+        <v>7.5720833333333326</v>
+      </c>
+      <c r="R23" s="8">
+        <v>6.3666666666666671</v>
+      </c>
+      <c r="S23" s="8">
+        <v>4.9133333333333331</v>
+      </c>
+      <c r="T23" s="8">
+        <v>14.666666666666666</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A24" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B24" s="8">
+        <v>88.333333333333329</v>
+      </c>
+      <c r="C24" s="8">
+        <v>11.75</v>
+      </c>
+      <c r="D24" s="8">
+        <v>7.1500000000000012</v>
+      </c>
+      <c r="E24" s="8">
+        <v>7.75</v>
+      </c>
+      <c r="F24" s="8">
+        <v>2.9166666666666665</v>
+      </c>
+      <c r="G24" s="8">
+        <v>14.916666666666666</v>
+      </c>
+      <c r="H24" s="8">
+        <v>5.8231476856476867</v>
+      </c>
+      <c r="I24" s="8">
+        <v>62.416666666666664</v>
+      </c>
+      <c r="J24" s="8">
+        <v>13.722220511777907</v>
+      </c>
+      <c r="K24" s="8">
+        <v>45.2575</v>
+      </c>
+      <c r="L24" s="8">
+        <v>9.9941666666666666</v>
+      </c>
+      <c r="M24" s="8">
+        <v>5.617916666666666</v>
+      </c>
+      <c r="N24" s="8">
+        <v>2.5916666666666668</v>
+      </c>
+      <c r="O24" s="8">
+        <v>119.41666666666667</v>
+      </c>
+      <c r="P24" s="8">
+        <v>10.690276922555624</v>
+      </c>
+      <c r="Q24" s="8">
+        <v>8.0070833333333322</v>
+      </c>
+      <c r="R24" s="8">
+        <v>6.4766666666666666</v>
+      </c>
+      <c r="S24" s="8">
+        <v>5.0858333333333334</v>
+      </c>
+      <c r="T24" s="8">
+        <v>18.533333333333335</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A25" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B25" s="8">
+        <v>82.75</v>
+      </c>
+      <c r="C25" s="8">
+        <v>11.5</v>
+      </c>
+      <c r="D25" s="8">
+        <v>6.4833333333333343</v>
+      </c>
+      <c r="E25" s="8">
+        <v>5.666666666666667</v>
+      </c>
+      <c r="F25" s="8">
+        <v>3.0833333333333335</v>
+      </c>
+      <c r="G25" s="8">
+        <v>11.333333333333334</v>
+      </c>
+      <c r="H25" s="8">
+        <v>5.6260206228956235</v>
+      </c>
+      <c r="I25" s="8">
+        <v>42.916666666666664</v>
+      </c>
+      <c r="J25" s="8">
+        <v>17.730553651777928</v>
+      </c>
+      <c r="K25" s="8">
+        <v>50.903750000000002</v>
+      </c>
+      <c r="L25" s="8">
+        <v>11.004166666666668</v>
+      </c>
+      <c r="M25" s="8">
+        <v>5.6625000000000005</v>
+      </c>
+      <c r="N25" s="8">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="O25" s="8">
+        <v>87.166666666666671</v>
+      </c>
+      <c r="P25" s="8">
+        <v>11.898610159222299</v>
+      </c>
+      <c r="Q25" s="8">
+        <v>8.7874999999999996</v>
+      </c>
+      <c r="R25" s="8">
+        <v>6.8233333333333333</v>
+      </c>
+      <c r="S25" s="8">
+        <v>5.3791666666666664</v>
+      </c>
+      <c r="T25" s="8">
+        <v>17.533333333333331</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A26" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B26" s="8">
+        <v>90.75</v>
+      </c>
+      <c r="C26" s="8">
+        <v>13.166666666666666</v>
+      </c>
+      <c r="D26" s="8">
+        <v>5.9750000000000005</v>
+      </c>
+      <c r="E26" s="8">
+        <v>7.333333333333333</v>
+      </c>
+      <c r="F26" s="8">
+        <v>3.25</v>
+      </c>
+      <c r="G26" s="8">
+        <v>13.5</v>
+      </c>
+      <c r="H26" s="8">
+        <v>5.6915757853257851</v>
+      </c>
+      <c r="I26" s="8">
+        <v>73.75</v>
+      </c>
+      <c r="J26" s="8">
+        <v>14.741664680000156</v>
+      </c>
+      <c r="K26" s="8">
+        <v>35.909583333333337</v>
+      </c>
+      <c r="L26" s="8">
+        <v>8.2799999999999994</v>
+      </c>
+      <c r="M26" s="8">
+        <v>5.3516666666666666</v>
+      </c>
+      <c r="N26" s="8">
+        <v>2.4333333333333336</v>
+      </c>
+      <c r="O26" s="8">
+        <v>140</v>
+      </c>
+      <c r="P26" s="8">
+        <v>12.416665673333412</v>
+      </c>
+      <c r="Q26" s="8">
+        <v>7.2824999999999989</v>
+      </c>
+      <c r="R26" s="8">
+        <v>5.67875</v>
+      </c>
+      <c r="S26" s="8">
+        <v>4.6500000000000004</v>
+      </c>
+      <c r="T26" s="8">
+        <v>14.199999999999998</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A27" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B27" s="8">
+        <v>87.166666666666671</v>
+      </c>
+      <c r="C27" s="8">
+        <v>11.666666666666666</v>
+      </c>
+      <c r="D27" s="8">
+        <v>6.1000000000000005</v>
+      </c>
+      <c r="E27" s="8">
+        <v>4.166666666666667</v>
+      </c>
+      <c r="F27" s="8">
+        <v>2.8333333333333335</v>
+      </c>
+      <c r="G27" s="8">
+        <v>13.583333333333334</v>
+      </c>
+      <c r="H27" s="8">
+        <v>5.8151085026085028</v>
+      </c>
+      <c r="I27" s="8">
+        <v>46.916666666666664</v>
+      </c>
+      <c r="J27" s="8">
+        <v>16.869442652889031</v>
+      </c>
+      <c r="K27" s="8">
+        <v>42.213749999999997</v>
+      </c>
+      <c r="L27" s="8">
+        <v>9.4787499999999998</v>
+      </c>
+      <c r="M27" s="8">
+        <v>5.1895833333333341</v>
+      </c>
+      <c r="N27" s="8">
+        <v>2.7833333333333332</v>
+      </c>
+      <c r="O27" s="8">
+        <v>97.416666666666671</v>
+      </c>
+      <c r="P27" s="8">
+        <v>11.197221326444515</v>
+      </c>
+      <c r="Q27" s="8">
+        <v>7.618125</v>
+      </c>
+      <c r="R27" s="8">
+        <v>6.3045833333333334</v>
+      </c>
+      <c r="S27" s="8">
+        <v>5.0233333333333334</v>
+      </c>
+      <c r="T27" s="8">
+        <v>17.266666666666666</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A28" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B28" s="8">
+        <v>93.083333333333329</v>
+      </c>
+      <c r="C28" s="8">
+        <v>12.833333333333334</v>
+      </c>
+      <c r="D28" s="8">
+        <v>6.0250000000000012</v>
+      </c>
+      <c r="E28" s="8">
+        <v>6.083333333333333</v>
+      </c>
+      <c r="F28" s="8">
+        <v>3.6666666666666665</v>
+      </c>
+      <c r="G28" s="8">
+        <v>13.166666666666666</v>
+      </c>
+      <c r="H28" s="8">
+        <v>6.1460816960816969</v>
+      </c>
+      <c r="I28" s="8">
+        <v>59.583333333333336</v>
+      </c>
+      <c r="J28" s="8">
+        <v>13.855553806444584</v>
+      </c>
+      <c r="K28" s="8">
+        <v>37.931249999999999</v>
+      </c>
+      <c r="L28" s="8">
+        <v>8.2208333333333332</v>
+      </c>
+      <c r="M28" s="8">
+        <v>5.0666666666666673</v>
+      </c>
+      <c r="N28" s="8">
+        <v>2.6166666666666667</v>
+      </c>
+      <c r="O28" s="8">
+        <v>127.58333333333333</v>
+      </c>
+      <c r="P28" s="8">
+        <v>10.931943569888958</v>
+      </c>
+      <c r="Q28" s="8">
+        <v>7.0183333333333335</v>
+      </c>
+      <c r="R28" s="8">
+        <v>5.6937500000000005</v>
+      </c>
+      <c r="S28" s="8">
+        <v>4.6341666666666663</v>
+      </c>
+      <c r="T28" s="8">
+        <v>12.199999999999998</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A29" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B29" s="8">
+        <v>97.916666666666671</v>
+      </c>
+      <c r="C29" s="8">
+        <v>11.833333333333334</v>
+      </c>
+      <c r="D29" s="8">
+        <v>5.7166666666666659</v>
+      </c>
+      <c r="E29" s="8">
+        <v>6.833333333333333</v>
+      </c>
+      <c r="F29" s="8">
+        <v>3.3333333333333335</v>
+      </c>
+      <c r="G29" s="8">
+        <v>12.166666666666666</v>
+      </c>
+      <c r="H29" s="8">
+        <v>6.4003367003367009</v>
+      </c>
+      <c r="I29" s="8">
+        <v>39.416666666666664</v>
+      </c>
+      <c r="J29" s="8">
+        <v>10.780554201111221</v>
+      </c>
+      <c r="K29" s="8">
+        <v>41.017083333333339</v>
+      </c>
+      <c r="L29" s="8">
+        <v>8.5945833333333344</v>
+      </c>
+      <c r="M29" s="8">
+        <v>5.3337499999999993</v>
+      </c>
+      <c r="N29" s="8">
+        <v>2.7583333333333333</v>
+      </c>
+      <c r="O29" s="8">
+        <v>87.666666666666671</v>
+      </c>
+      <c r="P29" s="8">
+        <v>8.4652771005556087</v>
+      </c>
+      <c r="Q29" s="8">
+        <v>6.5125000000000002</v>
+      </c>
+      <c r="R29" s="8">
+        <v>5.7616666666666667</v>
+      </c>
+      <c r="S29" s="8">
+        <v>4.876666666666666</v>
+      </c>
+      <c r="T29" s="8">
+        <v>13.733333333333334</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A30" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B30" s="8">
+        <v>85.333333333333329</v>
+      </c>
+      <c r="C30" s="8">
+        <v>10.583333333333334</v>
+      </c>
+      <c r="D30" s="8">
+        <v>5.5583333333333336</v>
+      </c>
+      <c r="E30" s="8">
+        <v>5.416666666666667</v>
+      </c>
+      <c r="F30" s="8">
+        <v>3.3333333333333335</v>
+      </c>
+      <c r="G30" s="8">
+        <v>11.166666666666666</v>
+      </c>
+      <c r="H30" s="8">
+        <v>6.1362584175084178</v>
+      </c>
+      <c r="I30" s="8">
+        <v>56.833333333333336</v>
+      </c>
+      <c r="J30" s="8">
+        <v>15.380553589111267</v>
+      </c>
+      <c r="K30" s="8">
+        <v>45.06</v>
+      </c>
+      <c r="L30" s="8">
+        <v>8.7233333333333345</v>
+      </c>
+      <c r="M30" s="8">
+        <v>5.614583333333333</v>
+      </c>
+      <c r="N30" s="8">
+        <v>2.8166666666666669</v>
+      </c>
+      <c r="O30" s="8">
+        <v>125.5</v>
+      </c>
+      <c r="P30" s="8">
+        <v>12.290276794555632</v>
+      </c>
+      <c r="Q30" s="8">
+        <v>7.378750000000001</v>
+      </c>
+      <c r="R30" s="8">
+        <v>6.2566666666666668</v>
+      </c>
+      <c r="S30" s="8">
+        <v>5.0004166666666672</v>
+      </c>
+      <c r="T30" s="8">
+        <v>16.566666666666666</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A31" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B31" s="8">
+        <v>95.166666666666671</v>
+      </c>
+      <c r="C31" s="8">
+        <v>11.916666666666666</v>
+      </c>
+      <c r="D31" s="8">
+        <v>5.4833333333333343</v>
+      </c>
+      <c r="E31" s="8">
+        <v>5.416666666666667</v>
+      </c>
+      <c r="F31" s="8">
+        <v>3.25</v>
+      </c>
+      <c r="G31" s="8">
+        <v>13.333333333333334</v>
+      </c>
+      <c r="H31" s="8">
+        <v>5.7598135660635661</v>
+      </c>
+      <c r="I31" s="8">
+        <v>64.416666666666671</v>
+      </c>
+      <c r="J31" s="8">
+        <v>19.284165157000121</v>
+      </c>
+      <c r="K31" s="8">
+        <v>37.752916666666664</v>
+      </c>
+      <c r="L31" s="8">
+        <v>8.7208333333333332</v>
+      </c>
+      <c r="M31" s="8">
+        <v>5.5291666666666659</v>
+      </c>
+      <c r="N31" s="8">
+        <v>2.4249999999999998</v>
+      </c>
+      <c r="O31" s="8">
+        <v>122.25</v>
+      </c>
+      <c r="P31" s="8">
+        <v>13.344443376888975</v>
+      </c>
+      <c r="Q31" s="8">
+        <v>7.2791666666666659</v>
+      </c>
+      <c r="R31" s="8">
+        <v>5.84375</v>
+      </c>
+      <c r="S31" s="8">
+        <v>4.684166666666667</v>
+      </c>
+      <c r="T31" s="8">
+        <v>14.333333333333334</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A32" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B32" s="8">
+        <v>75</v>
+      </c>
+      <c r="C32" s="8">
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="D32" s="8">
+        <v>0.53500000000000003</v>
+      </c>
+      <c r="E32" s="8">
+        <v>7.833333333333333</v>
+      </c>
+      <c r="F32" s="8">
+        <v>4.333333333333333</v>
+      </c>
+      <c r="G32" s="8">
+        <v>28.083333333333332</v>
+      </c>
+      <c r="H32" s="8">
+        <v>5.7615775095259387</v>
+      </c>
+      <c r="I32" s="8">
+        <v>58.166666666666664</v>
+      </c>
+      <c r="J32" s="8">
+        <v>26.683333333333337</v>
+      </c>
+      <c r="K32" s="8">
+        <v>4.1815000000000007</v>
+      </c>
+      <c r="L32" s="8">
+        <v>1.101375</v>
+      </c>
+      <c r="M32" s="8">
+        <v>0.58510833333333334</v>
+      </c>
+      <c r="N32" s="8">
+        <v>2.4185107756852076</v>
+      </c>
+      <c r="O32" s="8">
+        <v>115.58333333333333</v>
+      </c>
+      <c r="P32" s="8">
+        <v>18.108333333333334</v>
+      </c>
+      <c r="Q32" s="8">
+        <v>0.76761720085470087</v>
+      </c>
+      <c r="R32" s="8">
+        <v>0.49161151855390983</v>
+      </c>
+      <c r="S32" s="8">
+        <v>0.61620114137070658</v>
+      </c>
+      <c r="T32" s="8">
+        <v>16.233333333333334</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A33" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="B33" s="8">
+        <v>74.082999999999998</v>
+      </c>
+      <c r="C33" s="8">
+        <v>2.8333330000000001</v>
+      </c>
+      <c r="D33" s="8">
+        <v>5.35</v>
+      </c>
+      <c r="E33" s="8">
+        <v>10.5</v>
+      </c>
+      <c r="F33" s="8">
+        <v>2.5833330000000001</v>
+      </c>
+      <c r="G33" s="8">
+        <v>20.33333</v>
+      </c>
+      <c r="H33" s="8">
+        <v>6.1066669999999998</v>
+      </c>
+      <c r="I33" s="8">
+        <v>32.833329999999997</v>
+      </c>
+      <c r="J33" s="8">
+        <v>27.08333</v>
+      </c>
+      <c r="K33" s="8">
+        <v>39.590000000000003</v>
+      </c>
+      <c r="L33" s="8">
+        <v>8.1300000000000008</v>
+      </c>
+      <c r="M33" s="8">
+        <v>5.2466670000000004</v>
+      </c>
+      <c r="N33" s="8">
+        <v>2.83</v>
+      </c>
+      <c r="O33" s="8">
+        <v>87.75</v>
+      </c>
+      <c r="P33" s="8">
+        <v>26.13</v>
+      </c>
+      <c r="Q33" s="8">
+        <v>6.4266670000000001</v>
+      </c>
+      <c r="R33" s="8">
+        <v>5.76</v>
+      </c>
+      <c r="S33" s="8">
+        <v>5.016667</v>
+      </c>
+      <c r="T33" s="8">
+        <v>14.9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A34" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="B34" s="8">
+        <v>57.832999999999998</v>
+      </c>
+      <c r="C34" s="8">
+        <v>4</v>
+      </c>
+      <c r="D34" s="8">
+        <v>5.3166669999999998</v>
+      </c>
+      <c r="E34" s="8">
+        <v>7</v>
+      </c>
+      <c r="F34" s="8">
+        <v>3.4166669999999999</v>
+      </c>
+      <c r="G34" s="8">
+        <v>19.5</v>
+      </c>
+      <c r="H34" s="8">
+        <v>5.04</v>
+      </c>
+      <c r="I34" s="8">
+        <v>39.583329999999997</v>
+      </c>
+      <c r="J34" s="8">
+        <v>21.445</v>
+      </c>
+      <c r="K34" s="8">
+        <v>50.28</v>
+      </c>
+      <c r="L34" s="8">
+        <v>10.733333</v>
+      </c>
+      <c r="M34" s="8">
+        <v>6.2833329999999998</v>
+      </c>
+      <c r="N34" s="8">
+        <v>2.2633329999999998</v>
+      </c>
+      <c r="O34" s="8">
+        <v>70.666669999999996</v>
+      </c>
+      <c r="P34" s="8">
+        <v>27.21</v>
+      </c>
+      <c r="Q34" s="8">
+        <v>8.6866669999999999</v>
+      </c>
+      <c r="R34" s="8">
+        <v>6.9533329999999998</v>
+      </c>
+      <c r="S34" s="8">
+        <v>5.5833329999999997</v>
+      </c>
+      <c r="T34" s="8">
+        <v>22.37</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A35" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B35" s="8">
+        <v>92.166666666666671</v>
+      </c>
+      <c r="C35" s="8">
+        <v>12.25</v>
+      </c>
+      <c r="D35" s="8">
+        <v>6.2416666666666671</v>
+      </c>
+      <c r="E35" s="8">
+        <v>9.75</v>
+      </c>
+      <c r="F35" s="8">
+        <v>4.833333333333333</v>
+      </c>
+      <c r="G35" s="8">
+        <v>14.25</v>
+      </c>
+      <c r="H35" s="8">
+        <v>4.8305402930402934</v>
+      </c>
+      <c r="I35" s="8">
+        <v>81.333333333333329</v>
+      </c>
+      <c r="J35" s="8">
+        <v>17.983331310666831</v>
+      </c>
+      <c r="K35" s="8">
+        <v>33.696666666666665</v>
+      </c>
+      <c r="L35" s="8">
+        <v>7.496666666666667</v>
+      </c>
+      <c r="M35" s="8">
+        <v>4.9629166666666658</v>
+      </c>
+      <c r="N35" s="8">
+        <v>2.3250000000000002</v>
+      </c>
+      <c r="O35" s="8">
+        <v>156.66666666666666</v>
+      </c>
+      <c r="P35" s="8">
+        <v>12.641665655333414</v>
+      </c>
+      <c r="Q35" s="8">
+        <v>6.4575000000000005</v>
+      </c>
+      <c r="R35" s="8">
+        <v>5.2625000000000002</v>
+      </c>
+      <c r="S35" s="8">
+        <v>4.1683333333333339</v>
+      </c>
+      <c r="T35" s="8">
+        <v>9.7333333333333343</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A36" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B36" s="8">
+        <v>85.75</v>
+      </c>
+      <c r="C36" s="8">
+        <v>12.166666666666666</v>
+      </c>
+      <c r="D36" s="8">
+        <v>5.9833333333333334</v>
+      </c>
+      <c r="E36" s="8">
+        <v>7.666666666666667</v>
+      </c>
+      <c r="F36" s="8">
+        <v>3.5</v>
+      </c>
+      <c r="G36" s="8">
+        <v>12</v>
+      </c>
+      <c r="H36" s="8">
+        <v>5.5679390054390057</v>
+      </c>
+      <c r="I36" s="8">
+        <v>54.333333333333336</v>
+      </c>
+      <c r="J36" s="8">
+        <v>16.113886883777937</v>
+      </c>
+      <c r="K36" s="8">
+        <v>42.162500000000001</v>
+      </c>
+      <c r="L36" s="8">
+        <v>8.9791666666666661</v>
+      </c>
+      <c r="M36" s="8">
+        <v>5.6500000000000012</v>
+      </c>
+      <c r="N36" s="8">
+        <v>2.8000000000000003</v>
+      </c>
+      <c r="O36" s="8">
+        <v>123.5</v>
+      </c>
+      <c r="P36" s="8">
+        <v>12.531943441888968</v>
+      </c>
+      <c r="Q36" s="8">
+        <v>7.3275000000000006</v>
+      </c>
+      <c r="R36" s="8">
+        <v>6.0766666666666671</v>
+      </c>
+      <c r="S36" s="8">
+        <v>4.7258333333333331</v>
+      </c>
+      <c r="T36" s="8">
+        <v>15.733333333333334</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A37" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B37" s="8">
+        <v>78.083333333333329</v>
+      </c>
+      <c r="C37" s="8">
+        <v>2.5</v>
+      </c>
+      <c r="D37" s="8">
+        <v>0.57166666666666666</v>
+      </c>
+      <c r="E37" s="8">
+        <v>7.333333333333333</v>
+      </c>
+      <c r="F37" s="8">
+        <v>4.083333333333333</v>
+      </c>
+      <c r="G37" s="8">
+        <v>25.833333333333332</v>
+      </c>
+      <c r="H37" s="8">
+        <v>7.0560608805363083</v>
+      </c>
+      <c r="I37" s="8">
+        <v>40.416666666666664</v>
+      </c>
+      <c r="J37" s="8">
+        <v>20.791666666666664</v>
+      </c>
+      <c r="K37" s="8">
+        <v>4.4108333333333327</v>
+      </c>
+      <c r="L37" s="8">
+        <v>1.0041666666666667</v>
+      </c>
+      <c r="M37" s="8">
+        <v>0.5950833333333333</v>
+      </c>
+      <c r="N37" s="8">
+        <v>2.6371570092925007</v>
+      </c>
+      <c r="O37" s="8">
+        <v>82.583333333333329</v>
+      </c>
+      <c r="P37" s="8">
+        <v>13.791666666666666</v>
+      </c>
+      <c r="Q37" s="8">
+        <v>0.75770673076923067</v>
+      </c>
+      <c r="R37" s="8">
+        <v>0.51683876274868912</v>
+      </c>
+      <c r="S37" s="8">
+        <v>0.58404965973568923</v>
+      </c>
+      <c r="T37" s="8">
+        <v>15.333333333333334</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -2922,31 +5277,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="4" width="13.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="5" width="6.576428571428571" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="5" width="6.576428571428571" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="5" width="6.576428571428571" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="5" width="8.290714285714287" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="5" width="6.576428571428571" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="5" width="7.2907142857142855" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="5" width="6.576428571428571" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="5" width="7.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="5" width="8.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="6" width="9.290714285714287" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="5" width="6.576428571428571" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="5" width="6.576428571428571" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="5" width="6.576428571428571" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="5" width="6.576428571428571" customWidth="1" bestFit="1"/>
-    <col min="16" max="16" style="5" width="8.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="17" max="17" style="5" width="6.576428571428571" customWidth="1" bestFit="1"/>
-    <col min="18" max="18" style="6" width="10.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="19" max="19" style="5" width="6.576428571428571" customWidth="1" bestFit="1"/>
-    <col min="20" max="20" style="5" width="6.576428571428571" customWidth="1" bestFit="1"/>
-    <col min="21" max="21" style="5" width="6.576428571428571" customWidth="1" bestFit="1"/>
-    <col min="22" max="22" style="5" width="6.576428571428571" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="13.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="6.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="12" max="15" width="6.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="6.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="19" max="22" width="6.5703125" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
+    <row r="1" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3014,7 +5361,7 @@
         <v>21</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
+    <row r="2" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>22</v>
       </c>
@@ -3025,7 +5372,7 @@
         <v>1.6666666666666667</v>
       </c>
       <c r="D2" s="2">
-        <v>0.535</v>
+        <v>0.53500000000000003</v>
       </c>
       <c r="E2" s="2">
         <v>7.833333333333333</v>
@@ -3037,7 +5384,7 @@
         <v>28.083333333333332</v>
       </c>
       <c r="H2" s="2">
-        <v>5.761577509525939</v>
+        <v>5.7615775095259387</v>
       </c>
       <c r="I2" s="2">
         <v>58.166666666666664</v>
@@ -3049,13 +5396,13 @@
         <v>106.73333333333335</v>
       </c>
       <c r="L2" s="2">
-        <v>4.181500000000001</v>
+        <v>4.1815000000000007</v>
       </c>
       <c r="M2" s="2">
         <v>1.101375</v>
       </c>
       <c r="N2" s="2">
-        <v>0.5851083333333333</v>
+        <v>0.58510833333333334</v>
       </c>
       <c r="O2" s="2">
         <v>2.4185107756852076</v>
@@ -3067,33 +5414,33 @@
         <v>18.108333333333334</v>
       </c>
       <c r="R2" s="2">
-        <v>72.43333333333334</v>
+        <v>72.433333333333337</v>
       </c>
       <c r="S2" s="2">
-        <v>0.7676172008547009</v>
+        <v>0.76761720085470087</v>
       </c>
       <c r="T2" s="2">
         <v>0.49161151855390983</v>
       </c>
       <c r="U2" s="2">
-        <v>0.6162011413707066</v>
+        <v>0.61620114137070658</v>
       </c>
       <c r="V2" s="2">
         <v>16.233333333333334</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
+    <row r="3" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B3" s="2">
-        <v>78.08333333333333</v>
+        <v>78.083333333333329</v>
       </c>
       <c r="C3" s="2">
         <v>2.5</v>
       </c>
       <c r="D3" s="2">
-        <v>0.5716666666666667</v>
+        <v>0.57166666666666666</v>
       </c>
       <c r="E3" s="2">
         <v>7.333333333333333</v>
@@ -3105,7 +5452,7 @@
         <v>25.833333333333332</v>
       </c>
       <c r="H3" s="2">
-        <v>7.056060880536308</v>
+        <v>7.0560608805363083</v>
       </c>
       <c r="I3" s="2">
         <v>40.416666666666664</v>
@@ -3114,10 +5461,10 @@
         <v>20.791666666666664</v>
       </c>
       <c r="K3" s="2">
-        <v>83.16666666666666</v>
+        <v>83.166666666666657</v>
       </c>
       <c r="L3" s="2">
-        <v>4.410833333333333</v>
+        <v>4.4108333333333327</v>
       </c>
       <c r="M3" s="2">
         <v>1.0041666666666667</v>
@@ -3129,7 +5476,7 @@
         <v>2.6371570092925007</v>
       </c>
       <c r="P3" s="2">
-        <v>82.58333333333333</v>
+        <v>82.583333333333329</v>
       </c>
       <c r="Q3" s="2">
         <v>13.791666666666666</v>
@@ -3138,19 +5485,19 @@
         <v>55.166666666666664</v>
       </c>
       <c r="S3" s="2">
-        <v>0.7577067307692307</v>
+        <v>0.75770673076923067</v>
       </c>
       <c r="T3" s="2">
-        <v>0.5168387627486891</v>
+        <v>0.51683876274868912</v>
       </c>
       <c r="U3" s="2">
-        <v>0.5840496597356892</v>
+        <v>0.58404965973568923</v>
       </c>
       <c r="V3" s="2">
         <v>15.333333333333334</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
+    <row r="4" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>24</v>
       </c>
@@ -3161,7 +5508,7 @@
         <v>0.75</v>
       </c>
       <c r="D4" s="2">
-        <v>0.5433333333333333</v>
+        <v>0.54333333333333333</v>
       </c>
       <c r="E4" s="2">
         <v>6.333333333333333</v>
@@ -3179,19 +5526,19 @@
         <v>61.416666666666664</v>
       </c>
       <c r="J4" s="2">
-        <v>23.78333333333333</v>
+        <v>23.783333333333331</v>
       </c>
       <c r="K4" s="2">
-        <v>95.13333333333333</v>
+        <v>95.133333333333326</v>
       </c>
       <c r="L4" s="2">
-        <v>3.577916666666667</v>
+        <v>3.5779166666666669</v>
       </c>
       <c r="M4" s="2">
-        <v>0.9270833333333334</v>
+        <v>0.92708333333333337</v>
       </c>
       <c r="N4" s="2">
-        <v>0.5651666666666667</v>
+        <v>0.56516666666666671</v>
       </c>
       <c r="O4" s="2">
         <v>2.276757721225056</v>
@@ -3203,33 +5550,33 @@
         <v>14.866666666666667</v>
       </c>
       <c r="R4" s="2">
-        <v>59.46666666666667</v>
+        <v>59.466666666666669</v>
       </c>
       <c r="S4" s="2">
-        <v>0.7050075553673381</v>
+        <v>0.70500755536733806</v>
       </c>
       <c r="T4" s="2">
         <v>0.46366790057768315</v>
       </c>
       <c r="U4" s="2">
-        <v>0.5678106630688152</v>
+        <v>0.56781066306881522</v>
       </c>
       <c r="V4" s="2">
         <v>13.466666666666669</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
+    <row r="5" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B5" s="2">
-        <v>76.29166666666667</v>
+        <v>76.291666666666671</v>
       </c>
       <c r="C5" s="2">
-        <v>0.8333333333333334</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="D5" s="2">
-        <v>0.5233333333333333</v>
+        <v>0.52333333333333332</v>
       </c>
       <c r="E5" s="2">
         <v>6.333333333333333</v>
@@ -3250,16 +5597,16 @@
         <v>18.599999999999998</v>
       </c>
       <c r="K5" s="2">
-        <v>74.39999999999999</v>
+        <v>74.399999999999991</v>
       </c>
       <c r="L5" s="2">
         <v>3.5</v>
       </c>
       <c r="M5" s="2">
-        <v>0.8762500000000001</v>
+        <v>0.87625000000000008</v>
       </c>
       <c r="N5" s="2">
-        <v>0.5366666666666666</v>
+        <v>0.53666666666666663</v>
       </c>
       <c r="O5" s="2">
         <v>2.5035951554797244</v>
@@ -3271,33 +5618,33 @@
         <v>11.883333333333333</v>
       </c>
       <c r="R5" s="2">
-        <v>47.53333333333333</v>
+        <v>47.533333333333331</v>
       </c>
       <c r="S5" s="2">
-        <v>0.6537296893395039</v>
+        <v>0.65372968933950393</v>
       </c>
       <c r="T5" s="2">
         <v>0.44254906072425254</v>
       </c>
       <c r="U5" s="2">
-        <v>0.5446581966212721</v>
+        <v>0.54465819662127213</v>
       </c>
       <c r="V5" s="2">
         <v>10.366666666666667</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
+    <row r="6" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B6" s="2">
-        <v>75.79166666666667</v>
+        <v>75.791666666666671</v>
       </c>
       <c r="C6" s="2">
         <v>1.0833333333333333</v>
       </c>
       <c r="D6" s="2">
-        <v>0.5075</v>
+        <v>0.50749999999999995</v>
       </c>
       <c r="E6" s="2">
         <v>4.833333333333333</v>
@@ -3309,7 +5656,7 @@
         <v>18.833333333333332</v>
       </c>
       <c r="H6" s="2">
-        <v>6.306471596572216</v>
+        <v>6.3064715965722158</v>
       </c>
       <c r="I6" s="2">
         <v>34.583333333333336</v>
@@ -3321,13 +5668,13 @@
         <v>74.13333333333334</v>
       </c>
       <c r="L6" s="2">
-        <v>4.680416666666667</v>
+        <v>4.6804166666666669</v>
       </c>
       <c r="M6" s="2">
-        <v>0.9979166666666668</v>
+        <v>0.99791666666666679</v>
       </c>
       <c r="N6" s="2">
-        <v>0.5526666666666668</v>
+        <v>0.55266666666666675</v>
       </c>
       <c r="O6" s="2">
         <v>2.9943023939727005</v>
@@ -3342,33 +5689,33 @@
         <v>48.43333333333333</v>
       </c>
       <c r="S6" s="2">
-        <v>0.6864759354630044</v>
+        <v>0.68647593546300445</v>
       </c>
       <c r="T6" s="2">
-        <v>0.4691185855484956</v>
+        <v>0.46911858554849561</v>
       </c>
       <c r="U6" s="2">
-        <v>0.5765825882954512</v>
+        <v>0.57658258829545117</v>
       </c>
       <c r="V6" s="2">
         <v>13.1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
+    <row r="7" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B7" s="2">
-        <v>72.45833333333333</v>
+        <v>72.458333333333329</v>
       </c>
       <c r="C7" s="2">
         <v>4.25</v>
       </c>
       <c r="D7" s="2">
-        <v>0.5316666666666666</v>
+        <v>0.53166666666666662</v>
       </c>
       <c r="E7" s="2">
-        <v>9.416666666666666</v>
+        <v>9.4166666666666661</v>
       </c>
       <c r="F7" s="2">
         <v>4.333333333333333</v>
@@ -3377,7 +5724,7 @@
         <v>27.916666666666668</v>
       </c>
       <c r="H7" s="2">
-        <v>6.078646716273528</v>
+        <v>6.0786467162735276</v>
       </c>
       <c r="I7" s="2">
         <v>71.25</v>
@@ -3389,13 +5736,13 @@
         <v>83</v>
       </c>
       <c r="L7" s="2">
-        <v>3.417083333333333</v>
+        <v>3.4170833333333328</v>
       </c>
       <c r="M7" s="2">
-        <v>0.9708333333333332</v>
+        <v>0.97083333333333321</v>
       </c>
       <c r="N7" s="2">
-        <v>0.5481666666666666</v>
+        <v>0.54816666666666658</v>
       </c>
       <c r="O7" s="2">
         <v>2.1986452934723224</v>
@@ -3407,33 +5754,33 @@
         <v>15.591666666666667</v>
       </c>
       <c r="R7" s="2">
-        <v>62.36666666666667</v>
+        <v>62.366666666666667</v>
       </c>
       <c r="S7" s="2">
-        <v>0.6259932428682429</v>
+        <v>0.62599324286824287</v>
       </c>
       <c r="T7" s="2">
         <v>0.46923461381613557</v>
       </c>
       <c r="U7" s="2">
-        <v>0.5571214687754543</v>
+        <v>0.55712146877545432</v>
       </c>
       <c r="V7" s="2">
         <v>12.166666666666666</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
+    <row r="8" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B8" s="2">
-        <v>83.16666666666667</v>
+        <v>83.166666666666671</v>
       </c>
       <c r="C8" s="2">
         <v>3.6666666666666665</v>
       </c>
       <c r="D8" s="2">
-        <v>0.5466666666666665</v>
+        <v>0.54666666666666652</v>
       </c>
       <c r="E8" s="2">
         <v>7.666666666666667</v>
@@ -3445,13 +5792,13 @@
         <v>25.416666666666668</v>
       </c>
       <c r="H8" s="2">
-        <v>6.570241651227904</v>
+        <v>6.5702416512279038</v>
       </c>
       <c r="I8" s="2">
         <v>53.75</v>
       </c>
       <c r="J8" s="2">
-        <v>21.025</v>
+        <v>21.024999999999999</v>
       </c>
       <c r="K8" s="2">
         <v>84.1</v>
@@ -3460,13 +5807,13 @@
         <v>3.6374999999999997</v>
       </c>
       <c r="M8" s="2">
-        <v>0.9666666666666667</v>
+        <v>0.96666666666666667</v>
       </c>
       <c r="N8" s="2">
-        <v>0.5540833333333334</v>
+        <v>0.55408333333333337</v>
       </c>
       <c r="O8" s="2">
-        <v>2.302431617694815</v>
+        <v>2.3024316176948152</v>
       </c>
       <c r="P8" s="2">
         <v>98.5</v>
@@ -3475,22 +5822,22 @@
         <v>13.008333333333335</v>
       </c>
       <c r="R8" s="2">
-        <v>52.03333333333334</v>
+        <v>52.033333333333339</v>
       </c>
       <c r="S8" s="2">
         <v>0.7426959282263631</v>
       </c>
       <c r="T8" s="2">
-        <v>0.4654135532342054</v>
+        <v>0.46541355323420541</v>
       </c>
       <c r="U8" s="2">
-        <v>0.5758138010540185</v>
+        <v>0.57581380105401847</v>
       </c>
       <c r="V8" s="2">
         <v>13.666666666666666</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
+    <row r="9" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>29</v>
       </c>
@@ -3501,10 +5848,10 @@
         <v>2.9166666666666665</v>
       </c>
       <c r="D9" s="2">
-        <v>0.5749999999999998</v>
+        <v>0.57499999999999984</v>
       </c>
       <c r="E9" s="2">
-        <v>8.833333333333334</v>
+        <v>8.8333333333333339</v>
       </c>
       <c r="F9" s="2">
         <v>4.333333333333333</v>
@@ -3513,7 +5860,7 @@
         <v>23.666666666666668</v>
       </c>
       <c r="H9" s="2">
-        <v>7.169336611456177</v>
+        <v>7.1693366114561767</v>
       </c>
       <c r="I9" s="2">
         <v>49.5</v>
@@ -3522,22 +5869,22 @@
         <v>17.000000000000004</v>
       </c>
       <c r="K9" s="2">
-        <v>68.00000000000001</v>
+        <v>68.000000000000014</v>
       </c>
       <c r="L9" s="2">
         <v>3.5487499999999996</v>
       </c>
       <c r="M9" s="2">
-        <v>0.9983333333333332</v>
+        <v>0.99833333333333318</v>
       </c>
       <c r="N9" s="2">
-        <v>0.525</v>
+        <v>0.52500000000000002</v>
       </c>
       <c r="O9" s="2">
-        <v>2.295770718545618</v>
+        <v>2.2957707185456182</v>
       </c>
       <c r="P9" s="2">
-        <v>89.16666666666667</v>
+        <v>89.166666666666671</v>
       </c>
       <c r="Q9" s="2">
         <v>10.9</v>
@@ -3546,19 +5893,19 @@
         <v>43.6</v>
       </c>
       <c r="S9" s="2">
-        <v>0.6627490805818894</v>
+        <v>0.66274908058188942</v>
       </c>
       <c r="T9" s="2">
         <v>0.45730988567433073</v>
       </c>
       <c r="U9" s="2">
-        <v>0.5731666767379583</v>
+        <v>0.57316667673795829</v>
       </c>
       <c r="V9" s="2">
         <v>11.233333333333334</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
+    <row r="10" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>30</v>
       </c>
@@ -3569,7 +5916,7 @@
         <v>1.9166666666666667</v>
       </c>
       <c r="D10" s="2">
-        <v>0.4575</v>
+        <v>0.45750000000000002</v>
       </c>
       <c r="E10" s="2">
         <v>7.083333333333333</v>
@@ -3590,43 +5937,43 @@
         <v>15.908333333333337</v>
       </c>
       <c r="K10" s="2">
-        <v>63.63333333333335</v>
+        <v>63.633333333333347</v>
       </c>
       <c r="L10" s="2">
-        <v>4.05875</v>
+        <v>4.0587499999999999</v>
       </c>
       <c r="M10" s="2">
         <v>1.0254999999999999</v>
       </c>
       <c r="N10" s="2">
-        <v>0.5925833333333334</v>
+        <v>0.59258333333333335</v>
       </c>
       <c r="O10" s="2">
-        <v>2.912553959566942</v>
+        <v>2.9125539595669419</v>
       </c>
       <c r="P10" s="2">
-        <v>84.16666666666667</v>
+        <v>84.166666666666671</v>
       </c>
       <c r="Q10" s="2">
-        <v>9.524999999999999</v>
+        <v>9.5249999999999986</v>
       </c>
       <c r="R10" s="2">
         <v>38.099999999999994</v>
       </c>
       <c r="S10" s="2">
-        <v>0.6699033954843746</v>
+        <v>0.66990339548437461</v>
       </c>
       <c r="T10" s="2">
-        <v>0.5269702688880321</v>
+        <v>0.52697026888803211</v>
       </c>
       <c r="U10" s="2">
-        <v>0.5772061874851155</v>
+        <v>0.57720618748511554</v>
       </c>
       <c r="V10" s="2">
         <v>13.299999999999999</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
+    <row r="11" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>31</v>
       </c>
@@ -3637,7 +5984,7 @@
         <v>1.1666666666666667</v>
       </c>
       <c r="D11" s="2">
-        <v>0.5625000000000001</v>
+        <v>0.56250000000000011</v>
       </c>
       <c r="E11" s="2">
         <v>7.75</v>
@@ -3658,16 +6005,16 @@
         <v>19.599999999999998</v>
       </c>
       <c r="K11" s="2">
-        <v>78.39999999999999</v>
+        <v>78.399999999999991</v>
       </c>
       <c r="L11" s="2">
-        <v>4.000416666666666</v>
+        <v>4.0004166666666663</v>
       </c>
       <c r="M11" s="2">
         <v>1.2029166666666666</v>
       </c>
       <c r="N11" s="2">
-        <v>0.5398333333333333</v>
+        <v>0.53983333333333328</v>
       </c>
       <c r="O11" s="2">
         <v>2.5442845776894605</v>
@@ -3682,19 +6029,19 @@
         <v>50</v>
       </c>
       <c r="S11" s="2">
-        <v>0.7301292870464534</v>
+        <v>0.73012928704645341</v>
       </c>
       <c r="T11" s="2">
-        <v>0.4718917154954824</v>
+        <v>0.47189171549548242</v>
       </c>
       <c r="U11" s="2">
-        <v>0.5886870325689729</v>
+        <v>0.58868703256897292</v>
       </c>
       <c r="V11" s="2">
         <v>12.5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
+    <row r="12" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>32</v>
       </c>
@@ -3705,7 +6052,7 @@
         <v>1.8333333333333333</v>
       </c>
       <c r="D12" s="2">
-        <v>0.545</v>
+        <v>0.54500000000000004</v>
       </c>
       <c r="E12" s="2">
         <v>6.916666666666667</v>
@@ -3717,25 +6064,25 @@
         <v>26.416666666666668</v>
       </c>
       <c r="H12" s="2">
-        <v>6.198949509529606</v>
+        <v>6.1989495095296059</v>
       </c>
       <c r="I12" s="2">
         <v>62.916666666666664</v>
       </c>
       <c r="J12" s="2">
-        <v>23.34166666666667</v>
+        <v>23.341666666666669</v>
       </c>
       <c r="K12" s="2">
-        <v>93.36666666666667</v>
+        <v>93.366666666666674</v>
       </c>
       <c r="L12" s="2">
         <v>3.4983333333333335</v>
       </c>
       <c r="M12" s="2">
-        <v>0.9199999999999999</v>
+        <v>0.91999999999999993</v>
       </c>
       <c r="N12" s="2">
-        <v>0.57675</v>
+        <v>0.57674999999999998</v>
       </c>
       <c r="O12" s="2">
         <v>2.2780304890376972</v>
@@ -3747,22 +6094,22 @@
         <v>15.758333333333335</v>
       </c>
       <c r="R12" s="2">
-        <v>63.03333333333334</v>
+        <v>63.033333333333339</v>
       </c>
       <c r="S12" s="2">
-        <v>0.711791093387289</v>
+        <v>0.71179109338728896</v>
       </c>
       <c r="T12" s="2">
         <v>0.48682714568040647</v>
       </c>
       <c r="U12" s="2">
-        <v>0.5686189796515883</v>
+        <v>0.56861897965158825</v>
       </c>
       <c r="V12" s="2">
         <v>13.366666666666667</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
+    <row r="13" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>33</v>
       </c>
@@ -3770,10 +6117,10 @@
         <v>56</v>
       </c>
       <c r="C13" s="2">
-        <v>0.9166666666666666</v>
+        <v>0.91666666666666663</v>
       </c>
       <c r="D13" s="2">
-        <v>0.5833333333333333</v>
+        <v>0.58333333333333326</v>
       </c>
       <c r="E13" s="2">
         <v>5.333333333333333</v>
@@ -3785,7 +6132,7 @@
         <v>25.75</v>
       </c>
       <c r="H13" s="2">
-        <v>5.262311372360393</v>
+        <v>5.2623113723603927</v>
       </c>
       <c r="I13" s="2">
         <v>38.416666666666664</v>
@@ -3794,22 +6141,22 @@
         <v>17.974999999999998</v>
       </c>
       <c r="K13" s="2">
-        <v>71.89999999999999</v>
+        <v>71.899999999999991</v>
       </c>
       <c r="L13" s="2">
-        <v>4.139166666666667</v>
+        <v>4.1391666666666671</v>
       </c>
       <c r="M13" s="2">
-        <v>0.985</v>
+        <v>0.98499999999999999</v>
       </c>
       <c r="N13" s="2">
-        <v>0.5910000000000001</v>
+        <v>0.59100000000000008</v>
       </c>
       <c r="O13" s="2">
-        <v>2.364211508578699</v>
+        <v>2.3642115085786992</v>
       </c>
       <c r="P13" s="2">
-        <v>89.16666666666667</v>
+        <v>89.166666666666671</v>
       </c>
       <c r="Q13" s="2">
         <v>11.958333333333334</v>
@@ -3818,27 +6165,27 @@
         <v>47.833333333333336</v>
       </c>
       <c r="S13" s="2">
-        <v>0.6524440781440782</v>
+        <v>0.65244407814407823</v>
       </c>
       <c r="T13" s="2">
         <v>0.49859821784149744</v>
       </c>
       <c r="U13" s="2">
-        <v>0.5970967934883505</v>
+        <v>0.59709679348835054</v>
       </c>
       <c r="V13" s="2">
         <v>13.799999999999999</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
+    <row r="14" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B14" s="2">
-        <v>74.083</v>
+        <v>74.082999999999998</v>
       </c>
       <c r="C14" s="2">
-        <v>2.833333</v>
+        <v>2.8333330000000001</v>
       </c>
       <c r="D14" s="2">
         <v>5.35</v>
@@ -3847,31 +6194,31 @@
         <v>10.5</v>
       </c>
       <c r="F14" s="2">
-        <v>2.583333</v>
+        <v>2.5833330000000001</v>
       </c>
       <c r="G14" s="2">
         <v>20.33333</v>
       </c>
       <c r="H14" s="2">
-        <v>6.106667</v>
+        <v>6.1066669999999998</v>
       </c>
       <c r="I14" s="2">
-        <v>32.83333</v>
+        <v>32.833329999999997</v>
       </c>
       <c r="J14" s="2">
         <v>27.08333</v>
       </c>
       <c r="K14" s="2">
-        <v>595.1833</v>
+        <v>595.18330000000003</v>
       </c>
       <c r="L14" s="2">
-        <v>39.59</v>
+        <v>39.590000000000003</v>
       </c>
       <c r="M14" s="2">
-        <v>8.13</v>
+        <v>8.1300000000000008</v>
       </c>
       <c r="N14" s="2">
-        <v>5.246667</v>
+        <v>5.2466670000000004</v>
       </c>
       <c r="O14" s="2">
         <v>2.83</v>
@@ -3886,7 +6233,7 @@
         <v>307.42</v>
       </c>
       <c r="S14" s="2">
-        <v>6.426667</v>
+        <v>6.4266670000000001</v>
       </c>
       <c r="T14" s="2">
         <v>5.76</v>
@@ -3898,24 +6245,24 @@
         <v>14.9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
+    <row r="15" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B15" s="2">
-        <v>57.833</v>
+        <v>57.832999999999998</v>
       </c>
       <c r="C15" s="2">
         <v>4</v>
       </c>
       <c r="D15" s="2">
-        <v>5.316667</v>
+        <v>5.3166669999999998</v>
       </c>
       <c r="E15" s="2">
         <v>7</v>
       </c>
       <c r="F15" s="2">
-        <v>3.416667</v>
+        <v>3.4166669999999999</v>
       </c>
       <c r="G15" s="2">
         <v>19.5</v>
@@ -3924,13 +6271,13 @@
         <v>5.04</v>
       </c>
       <c r="I15" s="2">
-        <v>39.58333</v>
+        <v>39.583329999999997</v>
       </c>
       <c r="J15" s="2">
         <v>21.445</v>
       </c>
       <c r="K15" s="2">
-        <v>489.7567</v>
+        <v>489.75670000000002</v>
       </c>
       <c r="L15" s="2">
         <v>50.28</v>
@@ -3939,13 +6286,13 @@
         <v>10.733333</v>
       </c>
       <c r="N15" s="2">
-        <v>6.283333</v>
+        <v>6.2833329999999998</v>
       </c>
       <c r="O15" s="2">
-        <v>2.263333</v>
+        <v>2.2633329999999998</v>
       </c>
       <c r="P15" s="2">
-        <v>70.66667</v>
+        <v>70.666669999999996</v>
       </c>
       <c r="Q15" s="2">
         <v>27.21</v>
@@ -3954,24 +6301,24 @@
         <v>294.61</v>
       </c>
       <c r="S15" s="2">
-        <v>8.686667</v>
+        <v>8.6866669999999999</v>
       </c>
       <c r="T15" s="2">
-        <v>6.953333</v>
+        <v>6.9533329999999998</v>
       </c>
       <c r="U15" s="2">
-        <v>5.583333</v>
+        <v>5.5833329999999997</v>
       </c>
       <c r="V15" s="2">
         <v>22.37</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
+    <row r="16" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B16" s="2">
-        <v>88.667</v>
+        <v>88.667000000000002</v>
       </c>
       <c r="C16" s="2">
         <v>1.75</v>
@@ -3983,69 +6330,69 @@
         <v>10.08</v>
       </c>
       <c r="F16" s="2">
-        <v>2.916667</v>
+        <v>2.9166669999999999</v>
       </c>
       <c r="G16" s="2">
         <v>21</v>
       </c>
       <c r="H16" s="2">
-        <v>5.923333</v>
+        <v>5.9233330000000004</v>
       </c>
       <c r="I16" s="2">
-        <v>40.16667</v>
+        <v>40.166670000000003</v>
       </c>
       <c r="J16" s="2">
         <v>24.33333</v>
       </c>
       <c r="K16" s="2">
-        <v>577.7833</v>
+        <v>577.78330000000005</v>
       </c>
       <c r="L16" s="2">
         <v>40.98</v>
       </c>
       <c r="M16" s="2">
-        <v>8.883333</v>
+        <v>8.8833330000000004</v>
       </c>
       <c r="N16" s="2">
-        <v>5.623333</v>
+        <v>5.6233329999999997</v>
       </c>
       <c r="O16" s="2">
-        <v>2.45</v>
+        <v>2.4500000000000002</v>
       </c>
       <c r="P16" s="2">
-        <v>89.08333</v>
+        <v>89.083330000000004</v>
       </c>
       <c r="Q16" s="2">
         <v>25.08</v>
       </c>
       <c r="R16" s="2">
-        <v>299.957</v>
+        <v>299.95699999999999</v>
       </c>
       <c r="S16" s="2">
-        <v>7.173333</v>
+        <v>7.1733330000000004</v>
       </c>
       <c r="T16" s="2">
-        <v>5.873333</v>
+        <v>5.8733329999999997</v>
       </c>
       <c r="U16" s="2">
-        <v>4.673333</v>
+        <v>4.6733330000000004</v>
       </c>
       <c r="V16" s="2">
-        <v>13.70667</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
+        <v>13.706670000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B17" s="2">
-        <v>77.833</v>
+        <v>77.832999999999998</v>
       </c>
       <c r="C17" s="2">
         <v>1</v>
       </c>
       <c r="D17" s="2">
-        <v>5.425</v>
+        <v>5.4249999999999998</v>
       </c>
       <c r="E17" s="2">
         <v>10.33</v>
@@ -4057,22 +6404,22 @@
         <v>29.08333</v>
       </c>
       <c r="H17" s="2">
-        <v>5.906667</v>
+        <v>5.9066669999999997</v>
       </c>
       <c r="I17" s="2">
         <v>66.75</v>
       </c>
       <c r="J17" s="2">
-        <v>22.63333</v>
+        <v>22.633330000000001</v>
       </c>
       <c r="K17" s="2">
-        <v>498.1233</v>
+        <v>498.12329999999997</v>
       </c>
       <c r="L17" s="2">
-        <v>34.55667</v>
+        <v>34.556669999999997</v>
       </c>
       <c r="M17" s="2">
-        <v>8.136667</v>
+        <v>8.1366669999999992</v>
       </c>
       <c r="N17" s="2">
         <v>4.72</v>
@@ -4081,13 +6428,13 @@
         <v>2.326667</v>
       </c>
       <c r="P17" s="2">
-        <v>129.71667</v>
+        <v>129.71666999999999</v>
       </c>
       <c r="Q17" s="2">
         <v>27.58</v>
       </c>
       <c r="R17" s="2">
-        <v>285.54</v>
+        <v>285.54000000000002</v>
       </c>
       <c r="S17" s="2">
         <v>6.47</v>
@@ -4102,7 +6449,7 @@
         <v>10.38</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
+    <row r="18" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>38</v>
       </c>
@@ -4110,31 +6457,31 @@
         <v>60.75</v>
       </c>
       <c r="C18" s="2">
-        <v>1.583333</v>
+        <v>1.5833330000000001</v>
       </c>
       <c r="D18" s="2">
-        <v>5.066667</v>
+        <v>5.0666669999999998</v>
       </c>
       <c r="E18" s="2">
         <v>6.16</v>
       </c>
       <c r="F18" s="2">
-        <v>3.166667</v>
+        <v>3.1666669999999999</v>
       </c>
       <c r="G18" s="2">
         <v>20.16667</v>
       </c>
       <c r="H18" s="2">
-        <v>6.406667</v>
+        <v>6.4066669999999997</v>
       </c>
       <c r="I18" s="2">
-        <v>37.66667</v>
+        <v>37.666670000000003</v>
       </c>
       <c r="J18" s="2">
         <v>25.34</v>
       </c>
       <c r="K18" s="2">
-        <v>574.8533</v>
+        <v>574.85329999999999</v>
       </c>
       <c r="L18" s="2">
         <v>45.32667</v>
@@ -4143,13 +6490,13 @@
         <v>10.063333</v>
       </c>
       <c r="N18" s="2">
-        <v>5.866667</v>
+        <v>5.8666669999999996</v>
       </c>
       <c r="O18" s="2">
-        <v>2.526667</v>
+        <v>2.5266670000000002</v>
       </c>
       <c r="P18" s="2">
-        <v>98.83333</v>
+        <v>98.833330000000004</v>
       </c>
       <c r="Q18" s="2">
         <v>31.32</v>
@@ -4164,60 +6511,60 @@
         <v>6.693333</v>
       </c>
       <c r="U18" s="2">
-        <v>5.543333</v>
+        <v>5.5433329999999996</v>
       </c>
       <c r="V18" s="2">
-        <v>18.66333</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
+        <v>18.663329999999998</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B19" s="2">
-        <v>89.083</v>
+        <v>89.082999999999998</v>
       </c>
       <c r="C19" s="2">
         <v>2.25</v>
       </c>
       <c r="D19" s="2">
-        <v>6.175</v>
+        <v>6.1749999999999998</v>
       </c>
       <c r="E19" s="2">
         <v>10.5</v>
       </c>
       <c r="F19" s="2">
-        <v>4.566667</v>
+        <v>4.5666669999999998</v>
       </c>
       <c r="G19" s="2">
         <v>23.08333</v>
       </c>
       <c r="H19" s="2">
-        <v>4.953333</v>
+        <v>4.9533329999999998</v>
       </c>
       <c r="I19" s="2">
         <v>51.25</v>
       </c>
       <c r="J19" s="2">
-        <v>45.58333</v>
+        <v>45.583329999999997</v>
       </c>
       <c r="K19" s="2">
         <v>1015.4833</v>
       </c>
       <c r="L19" s="2">
-        <v>47.45667</v>
+        <v>47.456670000000003</v>
       </c>
       <c r="M19" s="2">
-        <v>9.623333</v>
+        <v>9.6233330000000006</v>
       </c>
       <c r="N19" s="2">
-        <v>6.583333</v>
+        <v>6.5833329999999997</v>
       </c>
       <c r="O19" s="2">
-        <v>2.366667</v>
+        <v>2.3666670000000001</v>
       </c>
       <c r="P19" s="2">
-        <v>132.42333</v>
+        <v>132.42332999999999</v>
       </c>
       <c r="Q19" s="2">
         <v>20.5</v>
@@ -4226,10 +6573,10 @@
         <v>453.19</v>
       </c>
       <c r="S19" s="2">
-        <v>8.273333</v>
+        <v>8.2733329999999992</v>
       </c>
       <c r="T19" s="2">
-        <v>6.626667</v>
+        <v>6.6266670000000003</v>
       </c>
       <c r="U19" s="2">
         <v>5.53</v>
@@ -4238,18 +6585,18 @@
         <v>21.16</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
+    <row r="20" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B20" s="2">
-        <v>68.583</v>
+        <v>68.582999999999998</v>
       </c>
       <c r="C20" s="2">
-        <v>2.416667</v>
+        <v>2.4166669999999999</v>
       </c>
       <c r="D20" s="2">
-        <v>4.841667</v>
+        <v>4.8416670000000002</v>
       </c>
       <c r="E20" s="2">
         <v>14.25</v>
@@ -4261,13 +6608,13 @@
         <v>28.33333</v>
       </c>
       <c r="H20" s="2">
-        <v>6.803333</v>
+        <v>6.8033330000000003</v>
       </c>
       <c r="I20" s="2">
-        <v>74.08333</v>
+        <v>74.083330000000004</v>
       </c>
       <c r="J20" s="2">
-        <v>22.61333</v>
+        <v>22.613330000000001</v>
       </c>
       <c r="K20" s="2">
         <v>554.7867</v>
@@ -4276,16 +6623,16 @@
         <v>35.35333</v>
       </c>
       <c r="M20" s="2">
-        <v>7.896667</v>
+        <v>7.8966669999999999</v>
       </c>
       <c r="N20" s="2">
-        <v>5.603333</v>
+        <v>5.6033330000000001</v>
       </c>
       <c r="O20" s="2">
-        <v>2.376667</v>
+        <v>2.3766669999999999</v>
       </c>
       <c r="P20" s="2">
-        <v>138.41667</v>
+        <v>138.41667000000001</v>
       </c>
       <c r="Q20" s="2">
         <v>38.19</v>
@@ -4297,24 +6644,24 @@
         <v>6.766667</v>
       </c>
       <c r="T20" s="2">
-        <v>5.553333</v>
+        <v>5.5533330000000003</v>
       </c>
       <c r="U20" s="2">
-        <v>4.673333</v>
+        <v>4.6733330000000004</v>
       </c>
       <c r="V20" s="2">
         <v>12.35</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5">
+    <row r="21" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>41</v>
       </c>
       <c r="B21" s="2">
-        <v>65.917</v>
+        <v>65.917000000000002</v>
       </c>
       <c r="C21" s="2">
-        <v>2.916667</v>
+        <v>2.9166669999999999</v>
       </c>
       <c r="D21" s="2">
         <v>5.233333</v>
@@ -4329,19 +6676,19 @@
         <v>25.25</v>
       </c>
       <c r="H21" s="2">
-        <v>7.093333</v>
+        <v>7.0933330000000003</v>
       </c>
       <c r="I21" s="2">
-        <v>49.83333</v>
+        <v>49.833329999999997</v>
       </c>
       <c r="J21" s="2">
-        <v>23.97333</v>
+        <v>23.973330000000001</v>
       </c>
       <c r="K21" s="2">
         <v>544.71</v>
       </c>
       <c r="L21" s="2">
-        <v>50.53333</v>
+        <v>50.533329999999999</v>
       </c>
       <c r="M21" s="2">
         <v>9.266667</v>
@@ -4350,7 +6697,7 @@
         <v>6.13</v>
       </c>
       <c r="O21" s="2">
-        <v>2.656667</v>
+        <v>2.6566670000000001</v>
       </c>
       <c r="P21" s="2">
         <v>124.5</v>
@@ -4365,16 +6712,16 @@
         <v>7.85</v>
       </c>
       <c r="T21" s="2">
-        <v>6.246667</v>
+        <v>6.2466670000000004</v>
       </c>
       <c r="U21" s="2">
         <v>4.766667</v>
       </c>
       <c r="V21" s="2">
-        <v>17.46333</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5">
+        <v>17.463329999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>42</v>
       </c>
@@ -4391,13 +6738,13 @@
         <v>12.75</v>
       </c>
       <c r="F22" s="2">
-        <v>3.583333</v>
+        <v>3.5833330000000001</v>
       </c>
       <c r="G22" s="2">
         <v>23.08333</v>
       </c>
       <c r="H22" s="2">
-        <v>5.526667</v>
+        <v>5.5266669999999998</v>
       </c>
       <c r="I22" s="2">
         <v>37.75</v>
@@ -4409,66 +6756,66 @@
         <v>536.99</v>
       </c>
       <c r="L22" s="2">
-        <v>37.86667</v>
+        <v>37.866669999999999</v>
       </c>
       <c r="M22" s="2">
-        <v>7.293333</v>
+        <v>7.2933329999999996</v>
       </c>
       <c r="N22" s="2">
-        <v>4.586667</v>
+        <v>4.5866670000000003</v>
       </c>
       <c r="O22" s="2">
         <v>2.693333</v>
       </c>
       <c r="P22" s="2">
-        <v>83.13333</v>
+        <v>83.133330000000001</v>
       </c>
       <c r="Q22" s="2">
         <v>15.17</v>
       </c>
       <c r="R22" s="2">
-        <v>269.65</v>
+        <v>269.64999999999998</v>
       </c>
       <c r="S22" s="2">
-        <v>6.506667</v>
+        <v>6.5066670000000002</v>
       </c>
       <c r="T22" s="2">
-        <v>5.116667</v>
+        <v>5.1166669999999996</v>
       </c>
       <c r="U22" s="2">
-        <v>4.363333</v>
+        <v>4.3633329999999999</v>
       </c>
       <c r="V22" s="2">
-        <v>13.30333</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="19.5">
+        <v>13.303330000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>43</v>
       </c>
       <c r="B23" s="2">
-        <v>81.417</v>
+        <v>81.417000000000002</v>
       </c>
       <c r="C23" s="2">
         <v>2.75</v>
       </c>
       <c r="D23" s="2">
-        <v>4.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="E23" s="2">
         <v>7.08</v>
       </c>
       <c r="F23" s="2">
-        <v>2.166667</v>
+        <v>2.1666669999999999</v>
       </c>
       <c r="G23" s="2">
         <v>18.41667</v>
       </c>
       <c r="H23" s="2">
-        <v>5.423333</v>
+        <v>5.4233330000000004</v>
       </c>
       <c r="I23" s="2">
-        <v>32.83333</v>
+        <v>32.833329999999997</v>
       </c>
       <c r="J23" s="2">
         <v>24.26</v>
@@ -4477,13 +6824,13 @@
         <v>445.75</v>
       </c>
       <c r="L23" s="2">
-        <v>46.55667</v>
+        <v>46.556669999999997</v>
       </c>
       <c r="M23" s="2">
         <v>9.18</v>
       </c>
       <c r="N23" s="2">
-        <v>6.113333</v>
+        <v>6.1133329999999999</v>
       </c>
       <c r="O23" s="2">
         <v>3.01</v>
@@ -4498,36 +6845,36 @@
         <v>293.42</v>
       </c>
       <c r="S23" s="2">
-        <v>7.343333</v>
+        <v>7.3433330000000003</v>
       </c>
       <c r="T23" s="2">
-        <v>6.223333</v>
+        <v>6.2233330000000002</v>
       </c>
       <c r="U23" s="2">
-        <v>5.283333</v>
+        <v>5.2833329999999998</v>
       </c>
       <c r="V23" s="2">
-        <v>17.47333</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="19.5">
+        <v>17.473330000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B24" s="2">
-        <v>75.333</v>
+        <v>75.332999999999998</v>
       </c>
       <c r="C24" s="2">
-        <v>3.166667</v>
+        <v>3.1666669999999999</v>
       </c>
       <c r="D24" s="2">
-        <v>6.175</v>
+        <v>6.1749999999999998</v>
       </c>
       <c r="E24" s="2">
         <v>10.58</v>
       </c>
       <c r="F24" s="2">
-        <v>4.666667</v>
+        <v>4.6666670000000003</v>
       </c>
       <c r="G24" s="2">
         <v>23.91667</v>
@@ -4536,54 +6883,54 @@
         <v>6.41</v>
       </c>
       <c r="I24" s="2">
-        <v>51.66667</v>
+        <v>51.666670000000003</v>
       </c>
       <c r="J24" s="2">
-        <v>19.08</v>
+        <v>19.079999999999998</v>
       </c>
       <c r="K24" s="2">
-        <v>411.3767</v>
+        <v>411.37670000000003</v>
       </c>
       <c r="L24" s="2">
-        <v>44.04667</v>
+        <v>44.046669999999999</v>
       </c>
       <c r="M24" s="2">
-        <v>9.176667</v>
+        <v>9.1766670000000001</v>
       </c>
       <c r="N24" s="2">
-        <v>4.863333</v>
+        <v>4.8633329999999999</v>
       </c>
       <c r="O24" s="2">
         <v>2.76</v>
       </c>
       <c r="P24" s="2">
-        <v>99.49667</v>
+        <v>99.496669999999995</v>
       </c>
       <c r="Q24" s="2">
         <v>35.21</v>
       </c>
       <c r="R24" s="2">
-        <v>263.65</v>
+        <v>263.64999999999998</v>
       </c>
       <c r="S24" s="2">
-        <v>7.256667</v>
+        <v>7.2566670000000002</v>
       </c>
       <c r="T24" s="2">
-        <v>5.853333</v>
+        <v>5.8533330000000001</v>
       </c>
       <c r="U24" s="2">
-        <v>4.513333</v>
+        <v>4.5133330000000003</v>
       </c>
       <c r="V24" s="2">
-        <v>14.54667</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="19.5">
+        <v>14.546670000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>45</v>
       </c>
       <c r="B25" s="2">
-        <v>76.583</v>
+        <v>76.582999999999998</v>
       </c>
       <c r="C25" s="2">
         <v>1</v>
@@ -4595,16 +6942,16 @@
         <v>10.83</v>
       </c>
       <c r="F25" s="2">
-        <v>4.416667</v>
+        <v>4.4166670000000003</v>
       </c>
       <c r="G25" s="2">
         <v>25.08333</v>
       </c>
       <c r="H25" s="2">
-        <v>6.666667</v>
+        <v>6.6666670000000003</v>
       </c>
       <c r="I25" s="2">
-        <v>68.41667</v>
+        <v>68.416669999999996</v>
       </c>
       <c r="J25" s="2">
         <v>25.3</v>
@@ -4616,22 +6963,22 @@
         <v>41.21</v>
       </c>
       <c r="M25" s="2">
-        <v>8.176667</v>
+        <v>8.1766670000000001</v>
       </c>
       <c r="N25" s="2">
-        <v>5.406667</v>
+        <v>5.4066669999999997</v>
       </c>
       <c r="O25" s="2">
-        <v>2.24</v>
+        <v>2.2400000000000002</v>
       </c>
       <c r="P25" s="2">
-        <v>98.33333</v>
+        <v>98.333330000000004</v>
       </c>
       <c r="Q25" s="2">
         <v>29.73</v>
       </c>
       <c r="R25" s="2">
-        <v>333.757</v>
+        <v>333.75700000000001</v>
       </c>
       <c r="S25" s="2">
         <v>6.976667</v>
@@ -4646,18 +6993,18 @@
         <v>11.93</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="19.5">
+    <row r="26" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>46</v>
       </c>
       <c r="B26" s="2">
-        <v>92.16666666666667</v>
+        <v>92.166666666666671</v>
       </c>
       <c r="C26" s="2">
         <v>12.25</v>
       </c>
       <c r="D26" s="2">
-        <v>6.241666666666667</v>
+        <v>6.2416666666666671</v>
       </c>
       <c r="E26" s="2">
         <v>9.75</v>
@@ -4669,13 +7016,13 @@
         <v>14.25</v>
       </c>
       <c r="H26" s="2">
-        <v>4.830540293040293</v>
+        <v>4.8305402930402934</v>
       </c>
       <c r="I26" s="2">
-        <v>81.33333333333333</v>
+        <v>81.333333333333329</v>
       </c>
       <c r="J26" s="2">
-        <v>17.98333131066683</v>
+        <v>17.983331310666831</v>
       </c>
       <c r="K26" s="3"/>
       <c r="L26" s="2">
@@ -4685,10 +7032,10 @@
         <v>7.496666666666667</v>
       </c>
       <c r="N26" s="2">
-        <v>4.962916666666666</v>
+        <v>4.9629166666666658</v>
       </c>
       <c r="O26" s="2">
-        <v>2.325</v>
+        <v>2.3250000000000002</v>
       </c>
       <c r="P26" s="2">
         <v>156.66666666666666</v>
@@ -4701,16 +7048,16 @@
         <v>6.4575000000000005</v>
       </c>
       <c r="T26" s="2">
-        <v>5.2625</v>
+        <v>5.2625000000000002</v>
       </c>
       <c r="U26" s="2">
-        <v>4.168333333333334</v>
+        <v>4.1683333333333339</v>
       </c>
       <c r="V26" s="2">
-        <v>9.733333333333334</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="19.5">
+        <v>9.7333333333333343</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>47</v>
       </c>
@@ -4721,7 +7068,7 @@
         <v>12.166666666666666</v>
       </c>
       <c r="D27" s="2">
-        <v>5.983333333333333</v>
+        <v>5.9833333333333334</v>
       </c>
       <c r="E27" s="2">
         <v>7.666666666666667</v>
@@ -4733,7 +7080,7 @@
         <v>12</v>
       </c>
       <c r="H27" s="2">
-        <v>5.567939005439006</v>
+        <v>5.5679390054390057</v>
       </c>
       <c r="I27" s="2">
         <v>54.333333333333336</v>
@@ -4743,13 +7090,13 @@
       </c>
       <c r="K27" s="3"/>
       <c r="L27" s="2">
-        <v>42.1625</v>
+        <v>42.162500000000001</v>
       </c>
       <c r="M27" s="2">
-        <v>8.979166666666666</v>
+        <v>8.9791666666666661</v>
       </c>
       <c r="N27" s="2">
-        <v>5.650000000000001</v>
+        <v>5.6500000000000012</v>
       </c>
       <c r="O27" s="2">
         <v>2.8000000000000003</v>
@@ -4762,19 +7109,19 @@
       </c>
       <c r="R27" s="3"/>
       <c r="S27" s="2">
-        <v>7.327500000000001</v>
+        <v>7.3275000000000006</v>
       </c>
       <c r="T27" s="2">
-        <v>6.076666666666667</v>
+        <v>6.0766666666666671</v>
       </c>
       <c r="U27" s="2">
-        <v>4.725833333333333</v>
+        <v>4.7258333333333331</v>
       </c>
       <c r="V27" s="2">
         <v>15.733333333333334</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="19.5">
+    <row r="28" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>48</v>
       </c>
@@ -4785,7 +7132,7 @@
         <v>12.333333333333334</v>
       </c>
       <c r="D28" s="2">
-        <v>5.408333333333334</v>
+        <v>5.4083333333333341</v>
       </c>
       <c r="E28" s="2">
         <v>4.833333333333333</v>
@@ -4797,7 +7144,7 @@
         <v>12.583333333333334</v>
       </c>
       <c r="H28" s="2">
-        <v>6.341440966440966</v>
+        <v>6.3414409664409659</v>
       </c>
       <c r="I28" s="2">
         <v>59.333333333333336</v>
@@ -4810,7 +7157,7 @@
         <v>39.197916666666664</v>
       </c>
       <c r="M28" s="2">
-        <v>8.552083333333334</v>
+        <v>8.5520833333333339</v>
       </c>
       <c r="N28" s="2">
         <v>4.925416666666667</v>
@@ -4829,16 +7176,16 @@
         <v>7.2875000000000005</v>
       </c>
       <c r="T28" s="2">
-        <v>5.772083333333334</v>
+        <v>5.7720833333333337</v>
       </c>
       <c r="U28" s="2">
-        <v>4.505</v>
+        <v>4.5049999999999999</v>
       </c>
       <c r="V28" s="2">
         <v>12.533333333333333</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="19.5">
+    <row r="29" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>49</v>
       </c>
@@ -4849,7 +7196,7 @@
         <v>12.333333333333334</v>
       </c>
       <c r="D29" s="2">
-        <v>6.175</v>
+        <v>6.1749999999999998</v>
       </c>
       <c r="E29" s="2">
         <v>7</v>
@@ -4861,26 +7208,26 @@
         <v>21.666666666666668</v>
       </c>
       <c r="H29" s="2">
-        <v>6.400414400414401</v>
+        <v>6.4004144004144008</v>
       </c>
       <c r="I29" s="2">
         <v>52.75</v>
       </c>
       <c r="J29" s="2">
-        <v>15.17499805600015</v>
+        <v>15.174998056000151</v>
       </c>
       <c r="K29" s="3"/>
       <c r="L29" s="2">
         <v>40.206250000000004</v>
       </c>
       <c r="M29" s="2">
-        <v>9.197083333333333</v>
+        <v>9.1970833333333335</v>
       </c>
       <c r="N29" s="2">
         <v>5.166666666666667</v>
       </c>
       <c r="O29" s="2">
-        <v>2.408333333333333</v>
+        <v>2.4083333333333332</v>
       </c>
       <c r="P29" s="2">
         <v>108.58333333333333</v>
@@ -4890,30 +7237,30 @@
       </c>
       <c r="R29" s="3"/>
       <c r="S29" s="2">
-        <v>7.572083333333333</v>
+        <v>7.5720833333333326</v>
       </c>
       <c r="T29" s="2">
-        <v>6.366666666666667</v>
+        <v>6.3666666666666671</v>
       </c>
       <c r="U29" s="2">
-        <v>4.913333333333333</v>
+        <v>4.9133333333333331</v>
       </c>
       <c r="V29" s="2">
         <v>14.666666666666666</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="19.5">
+    <row r="30" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>50</v>
       </c>
       <c r="B30" s="2">
-        <v>88.33333333333333</v>
+        <v>88.333333333333329</v>
       </c>
       <c r="C30" s="2">
         <v>11.75</v>
       </c>
       <c r="D30" s="2">
-        <v>7.150000000000001</v>
+        <v>7.1500000000000012</v>
       </c>
       <c r="E30" s="2">
         <v>7.75</v>
@@ -4925,7 +7272,7 @@
         <v>14.916666666666666</v>
       </c>
       <c r="H30" s="2">
-        <v>5.823147685647687</v>
+        <v>5.8231476856476867</v>
       </c>
       <c r="I30" s="2">
         <v>62.416666666666664</v>
@@ -4938,13 +7285,13 @@
         <v>45.2575</v>
       </c>
       <c r="M30" s="2">
-        <v>9.994166666666667</v>
+        <v>9.9941666666666666</v>
       </c>
       <c r="N30" s="2">
         <v>5.617916666666666</v>
       </c>
       <c r="O30" s="2">
-        <v>2.591666666666667</v>
+        <v>2.5916666666666668</v>
       </c>
       <c r="P30" s="2">
         <v>119.41666666666667</v>
@@ -4954,19 +7301,19 @@
       </c>
       <c r="R30" s="3"/>
       <c r="S30" s="2">
-        <v>8.007083333333332</v>
+        <v>8.0070833333333322</v>
       </c>
       <c r="T30" s="2">
-        <v>6.476666666666667</v>
+        <v>6.4766666666666666</v>
       </c>
       <c r="U30" s="2">
-        <v>5.085833333333333</v>
+        <v>5.0858333333333334</v>
       </c>
       <c r="V30" s="2">
         <v>18.533333333333335</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="19.5">
+    <row r="31" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>51</v>
       </c>
@@ -4977,7 +7324,7 @@
         <v>11.5</v>
       </c>
       <c r="D31" s="2">
-        <v>6.483333333333334</v>
+        <v>6.4833333333333343</v>
       </c>
       <c r="E31" s="2">
         <v>5.666666666666667</v>
@@ -4999,7 +7346,7 @@
       </c>
       <c r="K31" s="3"/>
       <c r="L31" s="2">
-        <v>50.90375</v>
+        <v>50.903750000000002</v>
       </c>
       <c r="M31" s="2">
         <v>11.004166666666668</v>
@@ -5008,29 +7355,29 @@
         <v>5.6625000000000005</v>
       </c>
       <c r="O31" s="2">
-        <v>2.45</v>
+        <v>2.4500000000000002</v>
       </c>
       <c r="P31" s="2">
-        <v>87.16666666666667</v>
+        <v>87.166666666666671</v>
       </c>
       <c r="Q31" s="2">
         <v>11.898610159222299</v>
       </c>
       <c r="R31" s="3"/>
       <c r="S31" s="2">
-        <v>8.7875</v>
+        <v>8.7874999999999996</v>
       </c>
       <c r="T31" s="2">
-        <v>6.823333333333333</v>
+        <v>6.8233333333333333</v>
       </c>
       <c r="U31" s="2">
-        <v>5.379166666666666</v>
+        <v>5.3791666666666664</v>
       </c>
       <c r="V31" s="2">
-        <v>17.53333333333333</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="19.5">
+        <v>17.533333333333331</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>52</v>
       </c>
@@ -5053,7 +7400,7 @@
         <v>13.5</v>
       </c>
       <c r="H32" s="2">
-        <v>5.691575785325785</v>
+        <v>5.6915757853257851</v>
       </c>
       <c r="I32" s="2">
         <v>73.75</v>
@@ -5063,13 +7410,13 @@
       </c>
       <c r="K32" s="3"/>
       <c r="L32" s="2">
-        <v>35.90958333333334</v>
+        <v>35.909583333333337</v>
       </c>
       <c r="M32" s="2">
-        <v>8.28</v>
+        <v>8.2799999999999994</v>
       </c>
       <c r="N32" s="2">
-        <v>5.351666666666667</v>
+        <v>5.3516666666666666</v>
       </c>
       <c r="O32" s="2">
         <v>2.4333333333333336</v>
@@ -5082,24 +7429,24 @@
       </c>
       <c r="R32" s="3"/>
       <c r="S32" s="2">
-        <v>7.282499999999999</v>
+        <v>7.2824999999999989</v>
       </c>
       <c r="T32" s="2">
         <v>5.67875</v>
       </c>
       <c r="U32" s="2">
-        <v>4.65</v>
+        <v>4.6500000000000004</v>
       </c>
       <c r="V32" s="2">
         <v>14.199999999999998</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="19.5">
+    <row r="33" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>53</v>
       </c>
       <c r="B33" s="2">
-        <v>87.16666666666667</v>
+        <v>87.166666666666671</v>
       </c>
       <c r="C33" s="2">
         <v>11.666666666666666</v>
@@ -5117,29 +7464,29 @@
         <v>13.583333333333334</v>
       </c>
       <c r="H33" s="2">
-        <v>5.815108502608503</v>
+        <v>5.8151085026085028</v>
       </c>
       <c r="I33" s="2">
         <v>46.916666666666664</v>
       </c>
       <c r="J33" s="2">
-        <v>16.86944265288903</v>
+        <v>16.869442652889031</v>
       </c>
       <c r="K33" s="3"/>
       <c r="L33" s="2">
-        <v>42.21375</v>
+        <v>42.213749999999997</v>
       </c>
       <c r="M33" s="2">
-        <v>9.47875</v>
+        <v>9.4787499999999998</v>
       </c>
       <c r="N33" s="2">
-        <v>5.189583333333334</v>
+        <v>5.1895833333333341</v>
       </c>
       <c r="O33" s="2">
-        <v>2.783333333333333</v>
+        <v>2.7833333333333332</v>
       </c>
       <c r="P33" s="2">
-        <v>97.41666666666667</v>
+        <v>97.416666666666671</v>
       </c>
       <c r="Q33" s="2">
         <v>11.197221326444515</v>
@@ -5149,27 +7496,27 @@
         <v>7.618125</v>
       </c>
       <c r="T33" s="2">
-        <v>6.304583333333333</v>
+        <v>6.3045833333333334</v>
       </c>
       <c r="U33" s="2">
-        <v>5.023333333333333</v>
+        <v>5.0233333333333334</v>
       </c>
       <c r="V33" s="2">
         <v>17.266666666666666</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="19.5">
+    <row r="34" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>54</v>
       </c>
       <c r="B34" s="2">
-        <v>93.08333333333333</v>
+        <v>93.083333333333329</v>
       </c>
       <c r="C34" s="2">
         <v>12.833333333333334</v>
       </c>
       <c r="D34" s="2">
-        <v>6.025000000000001</v>
+        <v>6.0250000000000012</v>
       </c>
       <c r="E34" s="2">
         <v>6.083333333333333</v>
@@ -5181,7 +7528,7 @@
         <v>13.166666666666666</v>
       </c>
       <c r="H34" s="2">
-        <v>6.146081696081697</v>
+        <v>6.1460816960816969</v>
       </c>
       <c r="I34" s="2">
         <v>59.583333333333336</v>
@@ -5191,13 +7538,13 @@
       </c>
       <c r="K34" s="3"/>
       <c r="L34" s="2">
-        <v>37.93125</v>
+        <v>37.931249999999999</v>
       </c>
       <c r="M34" s="2">
-        <v>8.220833333333333</v>
+        <v>8.2208333333333332</v>
       </c>
       <c r="N34" s="2">
-        <v>5.066666666666667</v>
+        <v>5.0666666666666673</v>
       </c>
       <c r="O34" s="2">
         <v>2.6166666666666667</v>
@@ -5216,24 +7563,24 @@
         <v>5.6937500000000005</v>
       </c>
       <c r="U34" s="2">
-        <v>4.634166666666666</v>
+        <v>4.6341666666666663</v>
       </c>
       <c r="V34" s="2">
         <v>12.199999999999998</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="19.5">
+    <row r="35" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>55</v>
       </c>
       <c r="B35" s="2">
-        <v>97.91666666666667</v>
+        <v>97.916666666666671</v>
       </c>
       <c r="C35" s="2">
         <v>11.833333333333334</v>
       </c>
       <c r="D35" s="2">
-        <v>5.716666666666666</v>
+        <v>5.7166666666666659</v>
       </c>
       <c r="E35" s="2">
         <v>6.833333333333333</v>
@@ -5245,39 +7592,39 @@
         <v>12.166666666666666</v>
       </c>
       <c r="H35" s="2">
-        <v>6.400336700336701</v>
+        <v>6.4003367003367009</v>
       </c>
       <c r="I35" s="2">
         <v>39.416666666666664</v>
       </c>
       <c r="J35" s="2">
-        <v>10.78055420111122</v>
+        <v>10.780554201111221</v>
       </c>
       <c r="K35" s="3"/>
       <c r="L35" s="2">
-        <v>41.01708333333334</v>
+        <v>41.017083333333339</v>
       </c>
       <c r="M35" s="2">
-        <v>8.594583333333334</v>
+        <v>8.5945833333333344</v>
       </c>
       <c r="N35" s="2">
-        <v>5.333749999999999</v>
+        <v>5.3337499999999993</v>
       </c>
       <c r="O35" s="2">
         <v>2.7583333333333333</v>
       </c>
       <c r="P35" s="2">
-        <v>87.66666666666667</v>
+        <v>87.666666666666671</v>
       </c>
       <c r="Q35" s="2">
-        <v>8.465277100555609</v>
+        <v>8.4652771005556087</v>
       </c>
       <c r="R35" s="3"/>
       <c r="S35" s="2">
-        <v>6.5125</v>
+        <v>6.5125000000000002</v>
       </c>
       <c r="T35" s="2">
-        <v>5.761666666666667</v>
+        <v>5.7616666666666667</v>
       </c>
       <c r="U35" s="2">
         <v>4.876666666666666</v>
@@ -5286,18 +7633,18 @@
         <v>13.733333333333334</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="19.5">
+    <row r="36" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>56</v>
       </c>
       <c r="B36" s="2">
-        <v>85.33333333333333</v>
+        <v>85.333333333333329</v>
       </c>
       <c r="C36" s="2">
         <v>10.583333333333334</v>
       </c>
       <c r="D36" s="2">
-        <v>5.558333333333334</v>
+        <v>5.5583333333333336</v>
       </c>
       <c r="E36" s="2">
         <v>5.416666666666667</v>
@@ -5309,7 +7656,7 @@
         <v>11.166666666666666</v>
       </c>
       <c r="H36" s="2">
-        <v>6.136258417508418</v>
+        <v>6.1362584175084178</v>
       </c>
       <c r="I36" s="2">
         <v>56.833333333333336</v>
@@ -5322,13 +7669,13 @@
         <v>45.06</v>
       </c>
       <c r="M36" s="2">
-        <v>8.723333333333334</v>
+        <v>8.7233333333333345</v>
       </c>
       <c r="N36" s="2">
         <v>5.614583333333333</v>
       </c>
       <c r="O36" s="2">
-        <v>2.816666666666667</v>
+        <v>2.8166666666666669</v>
       </c>
       <c r="P36" s="2">
         <v>125.5</v>
@@ -5341,27 +7688,27 @@
         <v>7.378750000000001</v>
       </c>
       <c r="T36" s="2">
-        <v>6.256666666666667</v>
+        <v>6.2566666666666668</v>
       </c>
       <c r="U36" s="2">
-        <v>5.000416666666667</v>
+        <v>5.0004166666666672</v>
       </c>
       <c r="V36" s="2">
         <v>16.566666666666666</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="19.5">
+    <row r="37" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>57</v>
       </c>
       <c r="B37" s="2">
-        <v>95.16666666666667</v>
+        <v>95.166666666666671</v>
       </c>
       <c r="C37" s="2">
         <v>11.916666666666666</v>
       </c>
       <c r="D37" s="2">
-        <v>5.483333333333334</v>
+        <v>5.4833333333333343</v>
       </c>
       <c r="E37" s="2">
         <v>5.416666666666667</v>
@@ -5373,26 +7720,26 @@
         <v>13.333333333333334</v>
       </c>
       <c r="H37" s="2">
-        <v>5.759813566063566</v>
+        <v>5.7598135660635661</v>
       </c>
       <c r="I37" s="2">
-        <v>64.41666666666667</v>
+        <v>64.416666666666671</v>
       </c>
       <c r="J37" s="2">
-        <v>19.28416515700012</v>
+        <v>19.284165157000121</v>
       </c>
       <c r="K37" s="3"/>
       <c r="L37" s="2">
         <v>37.752916666666664</v>
       </c>
       <c r="M37" s="2">
-        <v>8.720833333333333</v>
+        <v>8.7208333333333332</v>
       </c>
       <c r="N37" s="2">
-        <v>5.529166666666666</v>
+        <v>5.5291666666666659</v>
       </c>
       <c r="O37" s="2">
-        <v>2.425</v>
+        <v>2.4249999999999998</v>
       </c>
       <c r="P37" s="2">
         <v>122.25</v>
@@ -5402,7 +7749,7 @@
       </c>
       <c r="R37" s="3"/>
       <c r="S37" s="2">
-        <v>7.279166666666666</v>
+        <v>7.2791666666666659</v>
       </c>
       <c r="T37" s="2">
         <v>5.84375</v>
